--- a/Nextion/EEPROM_settings_N10.xlsx
+++ b/Nextion/EEPROM_settings_N10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadd\RoseEngine\Nextion\RoseEngine_N10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadd\RoseEngine\Nextion\RoseEngine_10a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22D058-8BE8-4458-B792-72C1B91FFC89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96999253-A856-4192-9092-37F26BEC925B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33030" yWindow="735" windowWidth="21495" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31860" yWindow="3060" windowWidth="19635" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eeprom" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="278">
   <si>
     <t>Index</t>
   </si>
@@ -899,6 +899,12 @@
   </si>
   <si>
     <t>Return: Spindle  - Main and One</t>
+  </si>
+  <si>
+    <t>TestEEPROMConfig</t>
+  </si>
+  <si>
+    <t>Config</t>
   </si>
 </sst>
 </file>
@@ -1327,8 +1333,8 @@
   <dimension ref="A1:M331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,14 +1387,14 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="str">
-        <f>DEC2HEX(F2)</f>
+        <f t="shared" ref="E2:E65" si="0">DEC2HEX(F2)</f>
         <v>21</v>
       </c>
       <c r="F2" s="5">
         <v>33</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f>CHAR(F2)</f>
+        <f t="shared" ref="G2:G37" si="1">CHAR(F2)</f>
         <v>!</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1397,14 +1403,14 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E3" s="4" t="str">
-        <f>DEC2HEX(F3)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F3" s="5">
         <v>34</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f>CHAR(F3)</f>
+        <f t="shared" si="1"/>
         <v>"</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1413,14 +1419,14 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="str">
-        <f>DEC2HEX(F4)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F4" s="5">
         <v>35</v>
       </c>
       <c r="G4" s="5" t="str">
-        <f>CHAR(F4)</f>
+        <f t="shared" si="1"/>
         <v>#</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1429,14 +1435,14 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="str">
-        <f>DEC2HEX(F5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F5" s="5">
         <v>36</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f>CHAR(F5)</f>
+        <f t="shared" si="1"/>
         <v>$</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1445,14 +1451,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="str">
-        <f>DEC2HEX(F6)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F6" s="5">
         <v>37</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f>CHAR(F6)</f>
+        <f t="shared" si="1"/>
         <v>%</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1461,14 +1467,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" s="4" t="str">
-        <f>DEC2HEX(F7)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F7" s="5">
         <v>38</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f>CHAR(F7)</f>
+        <f t="shared" si="1"/>
         <v>&amp;</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1479,14 +1485,14 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="str">
-        <f>DEC2HEX(F8)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="F8" s="5">
         <v>39</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f>CHAR(F8)</f>
+        <f t="shared" si="1"/>
         <v>'</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1495,14 +1501,14 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" s="4" t="str">
-        <f>DEC2HEX(F9)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F9" s="5">
         <v>40</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f>CHAR(F9)</f>
+        <f t="shared" si="1"/>
         <v>(</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1511,14 +1517,14 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" s="4" t="str">
-        <f>DEC2HEX(F10)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F10" s="5">
         <v>41</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f>CHAR(F10)</f>
+        <f t="shared" si="1"/>
         <v>)</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1533,14 +1539,14 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="str">
-        <f>DEC2HEX(F11)</f>
+        <f t="shared" si="0"/>
         <v>2A</v>
       </c>
       <c r="F11" s="5">
         <v>42</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f>CHAR(F11)</f>
+        <f t="shared" si="1"/>
         <v>*</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -1567,14 +1573,14 @@
         <v>435</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>DEC2HEX(F12)</f>
+        <f t="shared" si="0"/>
         <v>2B</v>
       </c>
       <c r="F12" s="5">
         <v>43</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>CHAR(F12)</f>
+        <f t="shared" si="1"/>
         <v>+</v>
       </c>
     </row>
@@ -1592,14 +1598,14 @@
         <v>439</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>DEC2HEX(F13)</f>
+        <f t="shared" si="0"/>
         <v>2C</v>
       </c>
       <c r="F13" s="5">
         <v>44</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>CHAR(F13)</f>
+        <f t="shared" si="1"/>
         <v>,</v>
       </c>
     </row>
@@ -1611,14 +1617,14 @@
         <v>267</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>DEC2HEX(F14)</f>
+        <f t="shared" si="0"/>
         <v>2D</v>
       </c>
       <c r="F14" s="5">
         <v>45</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>CHAR(F14)</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="I14" s="5">
@@ -1642,27 +1648,27 @@
         <v>987</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>DEC2HEX(F15)</f>
+        <f t="shared" si="0"/>
         <v>2E</v>
       </c>
       <c r="F15" s="5">
         <v>46</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>CHAR(F15)</f>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="str">
-        <f>DEC2HEX(F16)</f>
+        <f t="shared" si="0"/>
         <v>2F</v>
       </c>
       <c r="F16" s="2">
         <v>47</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>CHAR(F16)</f>
+        <f t="shared" si="1"/>
         <v>/</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1671,14 +1677,14 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="str">
-        <f>DEC2HEX(F17)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F17" s="2">
         <v>48</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>CHAR(F17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1687,14 +1693,14 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="str">
-        <f>DEC2HEX(F18)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="F18" s="2">
         <v>49</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>CHAR(F18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1703,14 +1709,14 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="str">
-        <f>DEC2HEX(F19)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F19" s="2">
         <v>50</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>CHAR(F19)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1719,14 +1725,14 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="str">
-        <f>DEC2HEX(F20)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="F20" s="2">
         <v>51</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>CHAR(F20)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1735,14 +1741,14 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="str">
-        <f>DEC2HEX(F21)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="F21" s="2">
         <v>52</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>CHAR(F21)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1751,14 +1757,14 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="str">
-        <f>DEC2HEX(F22)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F22" s="2">
         <v>53</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>CHAR(F22)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1767,14 +1773,14 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="str">
-        <f>DEC2HEX(F23)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F23" s="2">
         <v>54</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>CHAR(F23)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1783,14 +1789,14 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="str">
-        <f>DEC2HEX(F24)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="F24" s="2">
         <v>55</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>CHAR(F24)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1799,14 +1805,14 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="str">
-        <f>DEC2HEX(F25)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="F25" s="2">
         <v>56</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>CHAR(F25)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1815,14 +1821,14 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="str">
-        <f>DEC2HEX(F26)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="F26" s="2">
         <v>57</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>CHAR(F26)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1843,14 +1849,14 @@
         <v>53</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f>DEC2HEX(F27)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F27" s="5">
         <v>58</v>
       </c>
       <c r="G27" s="5" t="str">
-        <f>CHAR(F27)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -1868,14 +1874,14 @@
         <v>65</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>DEC2HEX(F28)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F28" s="5">
         <v>58</v>
       </c>
       <c r="G28" s="5" t="str">
-        <f>CHAR(F28)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -1893,14 +1899,14 @@
         <v>77</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f>DEC2HEX(F29)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F29" s="5">
         <v>58</v>
       </c>
       <c r="G29" s="5" t="str">
-        <f>CHAR(F29)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -1918,14 +1924,14 @@
         <v>427</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f>DEC2HEX(F30)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F30" s="5">
         <v>58</v>
       </c>
       <c r="G30" s="5" t="str">
-        <f>CHAR(F30)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -1943,14 +1949,14 @@
         <v>875</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f>DEC2HEX(F31)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F31" s="5">
         <v>58</v>
       </c>
       <c r="G31" s="5" t="str">
-        <f>CHAR(F31)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
       <c r="L31" s="5"/>
@@ -1970,14 +1976,14 @@
         <v>879</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f>DEC2HEX(F32)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F32" s="5">
         <v>58</v>
       </c>
       <c r="G32" s="5" t="str">
-        <f>CHAR(F32)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -1995,14 +2001,14 @@
         <v>883</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f>DEC2HEX(F33)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F33" s="5">
         <v>58</v>
       </c>
       <c r="G33" s="5" t="str">
-        <f>CHAR(F33)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -2020,14 +2026,14 @@
         <v>887</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f>DEC2HEX(F34)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F34" s="5">
         <v>58</v>
       </c>
       <c r="G34" s="5" t="str">
-        <f>CHAR(F34)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -2045,14 +2051,14 @@
         <v>891</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f>DEC2HEX(F35)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F35" s="5">
         <v>58</v>
       </c>
       <c r="G35" s="5" t="str">
-        <f>CHAR(F35)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -2070,14 +2076,14 @@
         <v>895</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f>DEC2HEX(F36)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F36" s="5">
         <v>58</v>
       </c>
       <c r="G36" s="5" t="str">
-        <f>CHAR(F36)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -2095,14 +2101,14 @@
         <v>899</v>
       </c>
       <c r="E37" s="5" t="str">
-        <f>DEC2HEX(F37)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F37" s="5">
         <v>58</v>
       </c>
       <c r="G37" s="5" t="str">
-        <f>CHAR(F37)</f>
+        <f t="shared" si="1"/>
         <v>:</v>
       </c>
     </row>
@@ -2120,7 +2126,7 @@
         <v>903</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f>DEC2HEX(F38)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F38" s="5">
@@ -2142,14 +2148,14 @@
         <v>907</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f>DEC2HEX(F39)</f>
+        <f t="shared" si="0"/>
         <v>3A</v>
       </c>
       <c r="F39" s="5">
         <v>58</v>
       </c>
       <c r="G39" s="5" t="str">
-        <f>CHAR(F39)</f>
+        <f t="shared" ref="G39:G50" si="2">CHAR(F39)</f>
         <v>:</v>
       </c>
     </row>
@@ -2167,14 +2173,14 @@
         <v>57</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f>DEC2HEX(F40)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F40" s="5">
         <v>59</v>
       </c>
       <c r="G40" s="5" t="str">
-        <f>CHAR(F40)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2192,14 +2198,14 @@
         <v>69</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f>DEC2HEX(F41)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F41" s="5">
         <v>59</v>
       </c>
       <c r="G41" s="5" t="str">
-        <f>CHAR(F41)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2217,14 +2223,14 @@
         <v>431</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f>DEC2HEX(F42)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F42" s="5">
         <v>59</v>
       </c>
       <c r="G42" s="5" t="str">
-        <f>CHAR(F42)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
       <c r="L42" s="5"/>
@@ -2244,14 +2250,14 @@
         <v>525</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f>DEC2HEX(F43)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F43" s="5">
         <v>59</v>
       </c>
       <c r="G43" s="5" t="str">
-        <f>CHAR(F43)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2269,14 +2275,14 @@
         <v>915</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f>DEC2HEX(F44)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F44" s="5">
         <v>59</v>
       </c>
       <c r="G44" s="5" t="str">
-        <f>CHAR(F44)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2294,14 +2300,14 @@
         <v>919</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f>DEC2HEX(F45)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F45" s="5">
         <v>59</v>
       </c>
       <c r="G45" s="5" t="str">
-        <f>CHAR(F45)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2319,14 +2325,14 @@
         <v>923</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f>DEC2HEX(F46)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F46" s="5">
         <v>59</v>
       </c>
       <c r="G46" s="5" t="str">
-        <f>CHAR(F46)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2344,14 +2350,14 @@
         <v>927</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f>DEC2HEX(F47)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F47" s="5">
         <v>59</v>
       </c>
       <c r="G47" s="5" t="str">
-        <f>CHAR(F47)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2369,14 +2375,14 @@
         <v>931</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f>DEC2HEX(F48)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F48" s="5">
         <v>59</v>
       </c>
       <c r="G48" s="5" t="str">
-        <f>CHAR(F48)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2394,14 +2400,14 @@
         <v>935</v>
       </c>
       <c r="E49" s="5" t="str">
-        <f>DEC2HEX(F49)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F49" s="5">
         <v>59</v>
       </c>
       <c r="G49" s="5" t="str">
-        <f>CHAR(F49)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2419,14 +2425,14 @@
         <v>939</v>
       </c>
       <c r="E50" s="5" t="str">
-        <f>DEC2HEX(F50)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F50" s="5">
         <v>59</v>
       </c>
       <c r="G50" s="5" t="str">
-        <f>CHAR(F50)</f>
+        <f t="shared" si="2"/>
         <v>;</v>
       </c>
     </row>
@@ -2444,7 +2450,7 @@
         <v>943</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f>DEC2HEX(F51)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F51" s="5">
@@ -2466,14 +2472,14 @@
         <v>947</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>DEC2HEX(F52)</f>
+        <f t="shared" si="0"/>
         <v>3B</v>
       </c>
       <c r="F52" s="5">
         <v>59</v>
       </c>
       <c r="G52" s="5" t="str">
-        <f>CHAR(F52)</f>
+        <f t="shared" ref="G52:G83" si="3">CHAR(F52)</f>
         <v>;</v>
       </c>
     </row>
@@ -2491,14 +2497,14 @@
         <v>169</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f>DEC2HEX(F53)</f>
+        <f t="shared" si="0"/>
         <v>3C</v>
       </c>
       <c r="F53" s="5">
         <v>60</v>
       </c>
       <c r="G53" s="5" t="str">
-        <f>CHAR(F53)</f>
+        <f t="shared" si="3"/>
         <v>&lt;</v>
       </c>
     </row>
@@ -2510,14 +2516,14 @@
         <v>215</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f>DEC2HEX(F54)</f>
+        <f t="shared" si="0"/>
         <v>3D</v>
       </c>
       <c r="F54" s="5">
         <v>61</v>
       </c>
       <c r="G54" s="5" t="str">
-        <f>CHAR(F54)</f>
+        <f t="shared" si="3"/>
         <v>=</v>
       </c>
     </row>
@@ -2535,14 +2541,14 @@
         <v>173</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f>DEC2HEX(F55)</f>
+        <f t="shared" si="0"/>
         <v>3E</v>
       </c>
       <c r="F55" s="5">
         <v>62</v>
       </c>
       <c r="G55" s="5" t="str">
-        <f>CHAR(F55)</f>
+        <f t="shared" si="3"/>
         <v>&gt;</v>
       </c>
     </row>
@@ -2560,14 +2566,14 @@
         <v>183</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f>DEC2HEX(F56)</f>
+        <f t="shared" si="0"/>
         <v>3F</v>
       </c>
       <c r="F56" s="5">
         <v>63</v>
       </c>
       <c r="G56" s="5" t="str">
-        <f>CHAR(F56)</f>
+        <f t="shared" si="3"/>
         <v>?</v>
       </c>
     </row>
@@ -2585,27 +2591,27 @@
         <v>115</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f>DEC2HEX(F57)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F57" s="5">
         <v>64</v>
       </c>
       <c r="G57" s="5" t="str">
-        <f>CHAR(F57)</f>
+        <f t="shared" si="3"/>
         <v>@</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E58" s="4" t="str">
-        <f>DEC2HEX(F58)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F58" s="5">
         <v>65</v>
       </c>
       <c r="G58" s="5" t="str">
-        <f>CHAR(F58)</f>
+        <f t="shared" si="3"/>
         <v>A</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -2614,14 +2620,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E59" s="4" t="str">
-        <f>DEC2HEX(F59)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="F59" s="5">
         <v>66</v>
       </c>
       <c r="G59" s="5" t="str">
-        <f>CHAR(F59)</f>
+        <f t="shared" si="3"/>
         <v>B</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -2636,14 +2642,14 @@
         <v>200</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f>DEC2HEX(F60)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="F60" s="5">
         <v>67</v>
       </c>
       <c r="G60" s="5" t="str">
-        <f>CHAR(F60)</f>
+        <f t="shared" si="3"/>
         <v>C</v>
       </c>
     </row>
@@ -2661,14 +2667,14 @@
         <v>415</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f>DEC2HEX(F61)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="F61" s="5">
         <v>68</v>
       </c>
       <c r="G61" s="5" t="str">
-        <f>CHAR(F61)</f>
+        <f t="shared" si="3"/>
         <v>D</v>
       </c>
     </row>
@@ -2686,14 +2692,14 @@
         <v>103</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f>DEC2HEX(F62)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F62" s="5">
         <v>69</v>
       </c>
       <c r="G62" s="5" t="str">
-        <f>CHAR(F62)</f>
+        <f t="shared" si="3"/>
         <v>E</v>
       </c>
     </row>
@@ -2711,14 +2717,14 @@
         <v>157</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f>DEC2HEX(F63)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F63" s="5">
         <v>69</v>
       </c>
       <c r="G63" s="5" t="str">
-        <f>CHAR(F63)</f>
+        <f t="shared" si="3"/>
         <v>E</v>
       </c>
     </row>
@@ -2736,14 +2742,14 @@
         <v>165</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f>DEC2HEX(F64)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F64" s="5">
         <v>69</v>
       </c>
       <c r="G64" s="5" t="str">
-        <f>CHAR(F64)</f>
+        <f t="shared" si="3"/>
         <v>E</v>
       </c>
     </row>
@@ -2761,14 +2767,14 @@
         <v>951</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f>DEC2HEX(F65)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="F65" s="5">
         <v>70</v>
       </c>
       <c r="G65" s="5" t="str">
-        <f>CHAR(F65)</f>
+        <f t="shared" si="3"/>
         <v>F</v>
       </c>
     </row>
@@ -2786,14 +2792,14 @@
         <v>283</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f>DEC2HEX(F66)</f>
+        <f t="shared" ref="E66:E129" si="4">DEC2HEX(F66)</f>
         <v>47</v>
       </c>
       <c r="F66" s="5">
         <v>71</v>
       </c>
       <c r="G66" s="5" t="str">
-        <f>CHAR(F66)</f>
+        <f t="shared" si="3"/>
         <v>G</v>
       </c>
       <c r="I66" s="5">
@@ -2814,14 +2820,14 @@
         <v>313</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f>DEC2HEX(F67)</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="F67" s="5">
         <v>71</v>
       </c>
       <c r="G67" s="5" t="str">
-        <f>CHAR(F67)</f>
+        <f t="shared" si="3"/>
         <v>G</v>
       </c>
       <c r="I67" s="5">
@@ -2842,14 +2848,14 @@
         <v>99</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f>DEC2HEX(F68)</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="F68" s="5">
         <v>72</v>
       </c>
       <c r="G68" s="5" t="str">
-        <f>CHAR(F68)</f>
+        <f t="shared" si="3"/>
         <v>H</v>
       </c>
     </row>
@@ -2867,14 +2873,14 @@
         <v>423</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f>DEC2HEX(F69)</f>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="F69" s="5">
         <v>73</v>
       </c>
       <c r="G69" s="5" t="str">
-        <f>CHAR(F69)</f>
+        <f t="shared" si="3"/>
         <v>I</v>
       </c>
     </row>
@@ -2886,14 +2892,14 @@
         <v>236</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f>DEC2HEX(F70)</f>
+        <f t="shared" si="4"/>
         <v>4A</v>
       </c>
       <c r="F70" s="5">
         <v>74</v>
       </c>
       <c r="G70" s="5" t="str">
-        <f>CHAR(F70)</f>
+        <f t="shared" si="3"/>
         <v>J</v>
       </c>
     </row>
@@ -2905,14 +2911,14 @@
         <v>235</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f>DEC2HEX(F71)</f>
+        <f t="shared" si="4"/>
         <v>4B</v>
       </c>
       <c r="F71" s="5">
         <v>75</v>
       </c>
       <c r="G71" s="5" t="str">
-        <f>CHAR(F71)</f>
+        <f t="shared" si="3"/>
         <v>K</v>
       </c>
     </row>
@@ -2930,14 +2936,14 @@
         <v>161</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f>DEC2HEX(F72)</f>
+        <f t="shared" si="4"/>
         <v>4C</v>
       </c>
       <c r="F72" s="5">
         <v>76</v>
       </c>
       <c r="G72" s="5" t="str">
-        <f>CHAR(F72)</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
     </row>
@@ -2955,14 +2961,14 @@
         <v>773</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f>DEC2HEX(F73)</f>
+        <f t="shared" si="4"/>
         <v>4D</v>
       </c>
       <c r="F73" s="5">
         <v>77</v>
       </c>
       <c r="G73" s="5" t="str">
-        <f>CHAR(F73)</f>
+        <f t="shared" si="3"/>
         <v>M</v>
       </c>
       <c r="I73" s="5">
@@ -2986,14 +2992,14 @@
         <v>419</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f>DEC2HEX(F74)</f>
+        <f t="shared" si="4"/>
         <v>4E</v>
       </c>
       <c r="F74" s="5">
         <v>78</v>
       </c>
       <c r="G74" s="5" t="str">
-        <f>CHAR(F74)</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
     </row>
@@ -3011,14 +3017,14 @@
         <v>403</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f>DEC2HEX(F75)</f>
+        <f t="shared" si="4"/>
         <v>4F</v>
       </c>
       <c r="F75" s="5">
         <v>79</v>
       </c>
       <c r="G75" s="5" t="str">
-        <f>CHAR(F75)</f>
+        <f t="shared" si="3"/>
         <v>O</v>
       </c>
     </row>
@@ -3036,14 +3042,14 @@
         <v>111</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f>DEC2HEX(F76)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F76" s="5">
         <v>80</v>
       </c>
       <c r="G76" s="5" t="str">
-        <f>CHAR(F76)</f>
+        <f t="shared" si="3"/>
         <v>P</v>
       </c>
     </row>
@@ -3055,14 +3061,14 @@
         <v>2</v>
       </c>
       <c r="E77" s="4" t="str">
-        <f>DEC2HEX(F77)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="F77" s="5">
         <v>81</v>
       </c>
       <c r="G77" s="5" t="str">
-        <f>CHAR(F77)</f>
+        <f t="shared" si="3"/>
         <v>Q</v>
       </c>
     </row>
@@ -3074,14 +3080,14 @@
         <v>1</v>
       </c>
       <c r="E78" s="4" t="str">
-        <f>DEC2HEX(F78)</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="F78" s="5">
         <v>82</v>
       </c>
       <c r="G78" s="5" t="str">
-        <f>CHAR(F78)</f>
+        <f t="shared" si="3"/>
         <v>R</v>
       </c>
     </row>
@@ -3099,14 +3105,14 @@
         <v>107</v>
       </c>
       <c r="E79" s="4" t="str">
-        <f>DEC2HEX(F79)</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="F79" s="5">
         <v>83</v>
       </c>
       <c r="G79" s="5" t="str">
-        <f>CHAR(F79)</f>
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
     </row>
@@ -3124,14 +3130,14 @@
         <v>119</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f>DEC2HEX(F80)</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="F80" s="5">
         <v>84</v>
       </c>
       <c r="G80" s="5" t="str">
-        <f>CHAR(F80)</f>
+        <f t="shared" si="3"/>
         <v>T</v>
       </c>
     </row>
@@ -3149,14 +3155,14 @@
         <v>334</v>
       </c>
       <c r="E81" s="4" t="str">
-        <f>DEC2HEX(F81)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="F81" s="5">
         <v>85</v>
       </c>
       <c r="G81" s="5" t="str">
-        <f>CHAR(F81)</f>
+        <f t="shared" si="3"/>
         <v>U</v>
       </c>
       <c r="I81" s="5">
@@ -3180,14 +3186,14 @@
         <v>411</v>
       </c>
       <c r="E82" s="4" t="str">
-        <f>DEC2HEX(F82)</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="F82" s="5">
         <v>86</v>
       </c>
       <c r="G82" s="5" t="str">
-        <f>CHAR(F82)</f>
+        <f t="shared" si="3"/>
         <v>V</v>
       </c>
     </row>
@@ -3205,14 +3211,14 @@
         <v>565</v>
       </c>
       <c r="E83" s="4" t="str">
-        <f>DEC2HEX(F83)</f>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="F83" s="5">
         <v>87</v>
       </c>
       <c r="G83" s="5" t="str">
-        <f>CHAR(F83)</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="I83" s="9">
@@ -3230,14 +3236,14 @@
         <v>275</v>
       </c>
       <c r="E84" s="4" t="str">
-        <f>DEC2HEX(F84)</f>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="F84" s="5">
         <v>88</v>
       </c>
       <c r="G84" s="5" t="str">
-        <f>CHAR(F84)</f>
+        <f t="shared" ref="G84:G115" si="5">CHAR(F84)</f>
         <v>X</v>
       </c>
     </row>
@@ -3255,14 +3261,14 @@
         <v>123</v>
       </c>
       <c r="E85" s="4" t="str">
-        <f>DEC2HEX(F85)</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="F85" s="5">
         <v>89</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f>CHAR(F85)</f>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
     </row>
@@ -3274,14 +3280,14 @@
         <v>199</v>
       </c>
       <c r="E86" s="4" t="str">
-        <f>DEC2HEX(F86)</f>
+        <f t="shared" si="4"/>
         <v>5A</v>
       </c>
       <c r="F86" s="5">
         <v>90</v>
       </c>
       <c r="G86" s="5" t="str">
-        <f>CHAR(F86)</f>
+        <f t="shared" si="5"/>
         <v>Z</v>
       </c>
     </row>
@@ -3293,27 +3299,27 @@
         <v>198</v>
       </c>
       <c r="E87" s="4" t="str">
-        <f>DEC2HEX(F87)</f>
+        <f t="shared" si="4"/>
         <v>5B</v>
       </c>
       <c r="F87" s="5">
         <v>91</v>
       </c>
       <c r="G87" s="5" t="str">
-        <f>CHAR(F87)</f>
+        <f t="shared" si="5"/>
         <v>[</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="str">
-        <f>DEC2HEX(F88)</f>
+        <f t="shared" si="4"/>
         <v>5C</v>
       </c>
       <c r="F88" s="2">
         <v>92</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f>CHAR(F88)</f>
+        <f t="shared" si="5"/>
         <v>\</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -3322,14 +3328,14 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E89" s="4" t="str">
-        <f>DEC2HEX(F89)</f>
+        <f t="shared" si="4"/>
         <v>5D</v>
       </c>
       <c r="F89" s="5">
         <v>93</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f>CHAR(F89)</f>
+        <f t="shared" si="5"/>
         <v>]</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -3341,14 +3347,14 @@
         <v>234</v>
       </c>
       <c r="E90" s="4" t="str">
-        <f>DEC2HEX(F90)</f>
+        <f t="shared" si="4"/>
         <v>7F</v>
       </c>
       <c r="F90" s="5">
         <v>127</v>
       </c>
       <c r="G90" s="5" t="str">
-        <f>CHAR(F90)</f>
+        <f t="shared" si="5"/>
         <v></v>
       </c>
     </row>
@@ -3357,14 +3363,14 @@
         <v>234</v>
       </c>
       <c r="E91" s="4" t="str">
-        <f>DEC2HEX(F91)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="F91" s="5">
         <v>128</v>
       </c>
       <c r="G91" s="5" t="str">
-        <f>CHAR(F91)</f>
+        <f t="shared" si="5"/>
         <v>€</v>
       </c>
     </row>
@@ -3373,14 +3379,14 @@
         <v>234</v>
       </c>
       <c r="E92" s="4" t="str">
-        <f>DEC2HEX(F92)</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="F92" s="5">
         <v>129</v>
       </c>
       <c r="G92" s="5" t="str">
-        <f>CHAR(F92)</f>
+        <f t="shared" si="5"/>
         <v></v>
       </c>
     </row>
@@ -3389,14 +3395,14 @@
         <v>234</v>
       </c>
       <c r="E93" s="4" t="str">
-        <f>DEC2HEX(F93)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="F93" s="5">
         <v>130</v>
       </c>
       <c r="G93" s="5" t="str">
-        <f>CHAR(F93)</f>
+        <f t="shared" si="5"/>
         <v>‚</v>
       </c>
     </row>
@@ -3405,14 +3411,14 @@
         <v>234</v>
       </c>
       <c r="E94" s="4" t="str">
-        <f>DEC2HEX(F94)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="F94" s="5">
         <v>131</v>
       </c>
       <c r="G94" s="5" t="str">
-        <f>CHAR(F94)</f>
+        <f t="shared" si="5"/>
         <v>ƒ</v>
       </c>
     </row>
@@ -3421,14 +3427,14 @@
         <v>234</v>
       </c>
       <c r="E95" s="4" t="str">
-        <f>DEC2HEX(F95)</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="F95" s="5">
         <v>132</v>
       </c>
       <c r="G95" s="5" t="str">
-        <f>CHAR(F95)</f>
+        <f t="shared" si="5"/>
         <v>„</v>
       </c>
     </row>
@@ -3437,14 +3443,14 @@
         <v>234</v>
       </c>
       <c r="E96" s="4" t="str">
-        <f>DEC2HEX(F96)</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="F96" s="5">
         <v>133</v>
       </c>
       <c r="G96" s="5" t="str">
-        <f>CHAR(F96)</f>
+        <f t="shared" si="5"/>
         <v>…</v>
       </c>
     </row>
@@ -3453,14 +3459,14 @@
         <v>234</v>
       </c>
       <c r="E97" s="4" t="str">
-        <f>DEC2HEX(F97)</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="F97" s="5">
         <v>134</v>
       </c>
       <c r="G97" s="5" t="str">
-        <f>CHAR(F97)</f>
+        <f t="shared" si="5"/>
         <v>†</v>
       </c>
     </row>
@@ -3469,14 +3475,14 @@
         <v>234</v>
       </c>
       <c r="E98" s="4" t="str">
-        <f>DEC2HEX(F98)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="F98" s="5">
         <v>135</v>
       </c>
       <c r="G98" s="5" t="str">
-        <f>CHAR(F98)</f>
+        <f t="shared" si="5"/>
         <v>‡</v>
       </c>
     </row>
@@ -3485,14 +3491,14 @@
         <v>234</v>
       </c>
       <c r="E99" s="4" t="str">
-        <f>DEC2HEX(F99)</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="F99" s="5">
         <v>136</v>
       </c>
       <c r="G99" s="5" t="str">
-        <f>CHAR(F99)</f>
+        <f t="shared" si="5"/>
         <v>ˆ</v>
       </c>
     </row>
@@ -3501,14 +3507,14 @@
         <v>234</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f>DEC2HEX(F100)</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="F100" s="5">
         <v>137</v>
       </c>
       <c r="G100" s="5" t="str">
-        <f>CHAR(F100)</f>
+        <f t="shared" si="5"/>
         <v>‰</v>
       </c>
     </row>
@@ -3517,14 +3523,14 @@
         <v>234</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f>DEC2HEX(F101)</f>
+        <f t="shared" si="4"/>
         <v>8A</v>
       </c>
       <c r="F101" s="5">
         <v>138</v>
       </c>
       <c r="G101" s="5" t="str">
-        <f>CHAR(F101)</f>
+        <f t="shared" si="5"/>
         <v>Š</v>
       </c>
     </row>
@@ -3533,14 +3539,14 @@
         <v>234</v>
       </c>
       <c r="E102" s="4" t="str">
-        <f>DEC2HEX(F102)</f>
+        <f t="shared" si="4"/>
         <v>8B</v>
       </c>
       <c r="F102" s="5">
         <v>139</v>
       </c>
       <c r="G102" s="5" t="str">
-        <f>CHAR(F102)</f>
+        <f t="shared" si="5"/>
         <v>‹</v>
       </c>
     </row>
@@ -3549,14 +3555,14 @@
         <v>234</v>
       </c>
       <c r="E103" s="4" t="str">
-        <f>DEC2HEX(F103)</f>
+        <f t="shared" si="4"/>
         <v>8C</v>
       </c>
       <c r="F103" s="5">
         <v>140</v>
       </c>
       <c r="G103" s="5" t="str">
-        <f>CHAR(F103)</f>
+        <f t="shared" si="5"/>
         <v>Œ</v>
       </c>
     </row>
@@ -3565,14 +3571,14 @@
         <v>234</v>
       </c>
       <c r="E104" s="4" t="str">
-        <f>DEC2HEX(F104)</f>
+        <f t="shared" si="4"/>
         <v>8D</v>
       </c>
       <c r="F104" s="5">
         <v>141</v>
       </c>
       <c r="G104" s="5" t="str">
-        <f>CHAR(F104)</f>
+        <f t="shared" si="5"/>
         <v></v>
       </c>
     </row>
@@ -3581,14 +3587,14 @@
         <v>234</v>
       </c>
       <c r="E105" s="4" t="str">
-        <f>DEC2HEX(F105)</f>
+        <f t="shared" si="4"/>
         <v>8E</v>
       </c>
       <c r="F105" s="5">
         <v>142</v>
       </c>
       <c r="G105" s="5" t="str">
-        <f>CHAR(F105)</f>
+        <f t="shared" si="5"/>
         <v>Ž</v>
       </c>
     </row>
@@ -3597,14 +3603,14 @@
         <v>234</v>
       </c>
       <c r="E106" s="4" t="str">
-        <f>DEC2HEX(F106)</f>
+        <f t="shared" si="4"/>
         <v>8F</v>
       </c>
       <c r="F106" s="5">
         <v>143</v>
       </c>
       <c r="G106" s="5" t="str">
-        <f>CHAR(F106)</f>
+        <f t="shared" si="5"/>
         <v></v>
       </c>
     </row>
@@ -3613,14 +3619,14 @@
         <v>234</v>
       </c>
       <c r="E107" s="4" t="str">
-        <f>DEC2HEX(F107)</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="F107" s="5">
         <v>144</v>
       </c>
       <c r="G107" s="5" t="str">
-        <f>CHAR(F107)</f>
+        <f t="shared" si="5"/>
         <v></v>
       </c>
     </row>
@@ -3629,14 +3635,14 @@
         <v>234</v>
       </c>
       <c r="E108" s="4" t="str">
-        <f>DEC2HEX(F108)</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="F108" s="5">
         <v>145</v>
       </c>
       <c r="G108" s="5" t="str">
-        <f>CHAR(F108)</f>
+        <f t="shared" si="5"/>
         <v>‘</v>
       </c>
     </row>
@@ -3645,14 +3651,14 @@
         <v>234</v>
       </c>
       <c r="E109" s="4" t="str">
-        <f>DEC2HEX(F109)</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="F109" s="5">
         <v>145</v>
       </c>
       <c r="G109" s="5" t="str">
-        <f>CHAR(F109)</f>
+        <f t="shared" si="5"/>
         <v>‘</v>
       </c>
     </row>
@@ -3661,14 +3667,14 @@
         <v>234</v>
       </c>
       <c r="E110" s="4" t="str">
-        <f>DEC2HEX(F110)</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="F110" s="5">
         <v>146</v>
       </c>
       <c r="G110" s="5" t="str">
-        <f>CHAR(F110)</f>
+        <f t="shared" si="5"/>
         <v>’</v>
       </c>
     </row>
@@ -3677,14 +3683,14 @@
         <v>234</v>
       </c>
       <c r="E111" s="4" t="str">
-        <f>DEC2HEX(F111)</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="F111" s="5">
         <v>147</v>
       </c>
       <c r="G111" s="5" t="str">
-        <f>CHAR(F111)</f>
+        <f t="shared" si="5"/>
         <v>“</v>
       </c>
     </row>
@@ -3693,14 +3699,14 @@
         <v>234</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f>DEC2HEX(F112)</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F112" s="5">
         <v>148</v>
       </c>
       <c r="G112" s="5" t="str">
-        <f>CHAR(F112)</f>
+        <f t="shared" si="5"/>
         <v>”</v>
       </c>
     </row>
@@ -3709,14 +3715,14 @@
         <v>234</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f>DEC2HEX(F113)</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="F113" s="5">
         <v>149</v>
       </c>
       <c r="G113" s="5" t="str">
-        <f>CHAR(F113)</f>
+        <f t="shared" si="5"/>
         <v>•</v>
       </c>
     </row>
@@ -3725,14 +3731,14 @@
         <v>234</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f>DEC2HEX(F114)</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="F114" s="5">
         <v>150</v>
       </c>
       <c r="G114" s="5" t="str">
-        <f>CHAR(F114)</f>
+        <f t="shared" si="5"/>
         <v>–</v>
       </c>
     </row>
@@ -3741,14 +3747,14 @@
         <v>234</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f>DEC2HEX(F115)</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="F115" s="5">
         <v>151</v>
       </c>
       <c r="G115" s="5" t="str">
-        <f>CHAR(F115)</f>
+        <f t="shared" si="5"/>
         <v>—</v>
       </c>
     </row>
@@ -3757,14 +3763,14 @@
         <v>234</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f>DEC2HEX(F116)</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="F116" s="5">
         <v>152</v>
       </c>
       <c r="G116" s="5" t="str">
-        <f>CHAR(F116)</f>
+        <f t="shared" ref="G116:G144" si="6">CHAR(F116)</f>
         <v>˜</v>
       </c>
     </row>
@@ -3773,14 +3779,14 @@
         <v>234</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f>DEC2HEX(F117)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="F117" s="5">
         <v>153</v>
       </c>
       <c r="G117" s="5" t="str">
-        <f>CHAR(F117)</f>
+        <f t="shared" si="6"/>
         <v>™</v>
       </c>
     </row>
@@ -3789,14 +3795,14 @@
         <v>234</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f>DEC2HEX(F118)</f>
+        <f t="shared" si="4"/>
         <v>9A</v>
       </c>
       <c r="F118" s="5">
         <v>154</v>
       </c>
       <c r="G118" s="5" t="str">
-        <f>CHAR(F118)</f>
+        <f t="shared" si="6"/>
         <v>š</v>
       </c>
     </row>
@@ -3805,14 +3811,14 @@
         <v>234</v>
       </c>
       <c r="E119" s="4" t="str">
-        <f>DEC2HEX(F119)</f>
+        <f t="shared" si="4"/>
         <v>9B</v>
       </c>
       <c r="F119" s="5">
         <v>155</v>
       </c>
       <c r="G119" s="5" t="str">
-        <f>CHAR(F119)</f>
+        <f t="shared" si="6"/>
         <v>›</v>
       </c>
     </row>
@@ -3821,14 +3827,14 @@
         <v>234</v>
       </c>
       <c r="E120" s="4" t="str">
-        <f>DEC2HEX(F120)</f>
+        <f t="shared" si="4"/>
         <v>9C</v>
       </c>
       <c r="F120" s="5">
         <v>156</v>
       </c>
       <c r="G120" s="5" t="str">
-        <f>CHAR(F120)</f>
+        <f t="shared" si="6"/>
         <v>œ</v>
       </c>
     </row>
@@ -3837,14 +3843,14 @@
         <v>234</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f>DEC2HEX(F121)</f>
+        <f t="shared" si="4"/>
         <v>9D</v>
       </c>
       <c r="F121" s="5">
         <v>157</v>
       </c>
       <c r="G121" s="5" t="str">
-        <f>CHAR(F121)</f>
+        <f t="shared" si="6"/>
         <v></v>
       </c>
     </row>
@@ -3853,14 +3859,14 @@
         <v>234</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f>DEC2HEX(F122)</f>
+        <f t="shared" si="4"/>
         <v>9E</v>
       </c>
       <c r="F122" s="5">
         <v>158</v>
       </c>
       <c r="G122" s="5" t="str">
-        <f>CHAR(F122)</f>
+        <f t="shared" si="6"/>
         <v>ž</v>
       </c>
     </row>
@@ -3869,14 +3875,14 @@
         <v>234</v>
       </c>
       <c r="E123" s="4" t="str">
-        <f>DEC2HEX(F123)</f>
+        <f t="shared" si="4"/>
         <v>9F</v>
       </c>
       <c r="F123" s="5">
         <v>159</v>
       </c>
       <c r="G123" s="5" t="str">
-        <f>CHAR(F123)</f>
+        <f t="shared" si="6"/>
         <v>Ÿ</v>
       </c>
     </row>
@@ -3885,14 +3891,14 @@
         <v>234</v>
       </c>
       <c r="E124" s="4" t="str">
-        <f>DEC2HEX(F124)</f>
+        <f t="shared" si="4"/>
         <v>A0</v>
       </c>
       <c r="F124" s="5">
         <v>160</v>
       </c>
       <c r="G124" s="5" t="str">
-        <f>CHAR(F124)</f>
+        <f t="shared" si="6"/>
         <v> </v>
       </c>
     </row>
@@ -3904,14 +3910,14 @@
         <v>237</v>
       </c>
       <c r="E125" s="4" t="str">
-        <f>DEC2HEX(F125)</f>
+        <f t="shared" si="4"/>
         <v>5E</v>
       </c>
       <c r="F125" s="5">
         <v>94</v>
       </c>
       <c r="G125" s="5" t="str">
-        <f>CHAR(F125)</f>
+        <f t="shared" si="6"/>
         <v>^</v>
       </c>
     </row>
@@ -3923,14 +3929,14 @@
         <v>22</v>
       </c>
       <c r="E126" s="4" t="str">
-        <f>DEC2HEX(F126)</f>
+        <f t="shared" si="4"/>
         <v>5E</v>
       </c>
       <c r="F126" s="5">
         <v>94</v>
       </c>
       <c r="G126" s="5" t="str">
-        <f>CHAR(F126)</f>
+        <f t="shared" si="6"/>
         <v>^</v>
       </c>
     </row>
@@ -3942,14 +3948,14 @@
         <v>21</v>
       </c>
       <c r="E127" s="4" t="str">
-        <f>DEC2HEX(F127)</f>
+        <f t="shared" si="4"/>
         <v>5F</v>
       </c>
       <c r="F127" s="5">
         <v>95</v>
       </c>
       <c r="G127" s="5" t="str">
-        <f>CHAR(F127)</f>
+        <f t="shared" si="6"/>
         <v>_</v>
       </c>
     </row>
@@ -3961,27 +3967,27 @@
         <v>23</v>
       </c>
       <c r="E128" s="4" t="str">
-        <f>DEC2HEX(F128)</f>
+        <f t="shared" si="4"/>
         <v>5F</v>
       </c>
       <c r="F128" s="5">
         <v>95</v>
       </c>
       <c r="G128" s="5" t="str">
-        <f>CHAR(F128)</f>
+        <f t="shared" si="6"/>
         <v>_</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E129" s="1" t="str">
-        <f>DEC2HEX(F129)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F129" s="2">
         <v>96</v>
       </c>
       <c r="G129" s="2" t="str">
-        <f>CHAR(F129)</f>
+        <f t="shared" si="6"/>
         <v>`</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -4002,14 +4008,14 @@
         <v>443</v>
       </c>
       <c r="E130" s="4" t="str">
-        <f>DEC2HEX(F130)</f>
+        <f t="shared" ref="E130:E193" si="7">DEC2HEX(F130)</f>
         <v>61</v>
       </c>
       <c r="F130" s="5">
         <v>97</v>
       </c>
       <c r="G130" s="5" t="str">
-        <f>CHAR(F130)</f>
+        <f t="shared" si="6"/>
         <v>a</v>
       </c>
     </row>
@@ -4021,14 +4027,14 @@
         <v>58</v>
       </c>
       <c r="E131" s="4" t="str">
-        <f>DEC2HEX(F131)</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="F131" s="5">
         <v>98</v>
       </c>
       <c r="G131" s="5" t="str">
-        <f>CHAR(F131)</f>
+        <f t="shared" si="6"/>
         <v>b</v>
       </c>
     </row>
@@ -4040,14 +4046,14 @@
         <v>197</v>
       </c>
       <c r="E132" s="4" t="str">
-        <f>DEC2HEX(F132)</f>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="F132" s="5">
         <v>99</v>
       </c>
       <c r="G132" s="5" t="str">
-        <f>CHAR(F132)</f>
+        <f t="shared" si="6"/>
         <v>c</v>
       </c>
     </row>
@@ -4059,14 +4065,14 @@
         <v>32</v>
       </c>
       <c r="E133" s="4" t="str">
-        <f>DEC2HEX(F133)</f>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="F133" s="5">
         <v>100</v>
       </c>
       <c r="G133" s="5" t="str">
-        <f>CHAR(F133)</f>
+        <f t="shared" si="6"/>
         <v>d</v>
       </c>
     </row>
@@ -4078,14 +4084,14 @@
         <v>31</v>
       </c>
       <c r="E134" s="4" t="str">
-        <f>DEC2HEX(F134)</f>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="F134" s="5">
         <v>101</v>
       </c>
       <c r="G134" s="5" t="str">
-        <f>CHAR(F134)</f>
+        <f t="shared" si="6"/>
         <v>e</v>
       </c>
     </row>
@@ -4103,14 +4109,14 @@
         <v>23</v>
       </c>
       <c r="E135" s="4" t="str">
-        <f>DEC2HEX(F135)</f>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="F135" s="5">
         <v>102</v>
       </c>
       <c r="G135" s="5" t="str">
-        <f>CHAR(F135)</f>
+        <f t="shared" si="6"/>
         <v>f</v>
       </c>
     </row>
@@ -4128,14 +4134,14 @@
         <v>61</v>
       </c>
       <c r="E136" s="4" t="str">
-        <f>DEC2HEX(F136)</f>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="F136" s="5">
         <v>102</v>
       </c>
       <c r="G136" s="5" t="str">
-        <f>CHAR(F136)</f>
+        <f t="shared" si="6"/>
         <v>f</v>
       </c>
     </row>
@@ -4153,14 +4159,14 @@
         <v>73</v>
       </c>
       <c r="E137" s="4" t="str">
-        <f>DEC2HEX(F137)</f>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="F137" s="5">
         <v>102</v>
       </c>
       <c r="G137" s="5" t="str">
-        <f>CHAR(F137)</f>
+        <f t="shared" si="6"/>
         <v>f</v>
       </c>
     </row>
@@ -4178,14 +4184,14 @@
         <v>529</v>
       </c>
       <c r="E138" s="4" t="str">
-        <f>DEC2HEX(F138)</f>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="F138" s="5">
         <v>102</v>
       </c>
       <c r="G138" s="5" t="str">
-        <f>CHAR(F138)</f>
+        <f t="shared" si="6"/>
         <v>f</v>
       </c>
     </row>
@@ -4203,14 +4209,14 @@
         <v>127</v>
       </c>
       <c r="E139" s="4" t="str">
-        <f>DEC2HEX(F139)</f>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="F139" s="5">
         <v>103</v>
       </c>
       <c r="G139" s="5" t="str">
-        <f>CHAR(F139)</f>
+        <f t="shared" si="6"/>
         <v>g</v>
       </c>
       <c r="I139" s="4"/>
@@ -4229,14 +4235,14 @@
         <v>131</v>
       </c>
       <c r="E140" s="4" t="str">
-        <f>DEC2HEX(F140)</f>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="F140" s="5">
         <v>104</v>
       </c>
       <c r="G140" s="5" t="str">
-        <f>CHAR(F140)</f>
+        <f t="shared" si="6"/>
         <v>h</v>
       </c>
     </row>
@@ -4248,14 +4254,14 @@
         <v>143</v>
       </c>
       <c r="E141" s="4" t="str">
-        <f>DEC2HEX(F141)</f>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="F141" s="5">
         <v>105</v>
       </c>
       <c r="G141" s="5" t="str">
-        <f>CHAR(F141)</f>
+        <f t="shared" si="6"/>
         <v>i</v>
       </c>
     </row>
@@ -4267,14 +4273,14 @@
         <v>53</v>
       </c>
       <c r="E142" s="4" t="str">
-        <f>DEC2HEX(F142)</f>
+        <f t="shared" si="7"/>
         <v>6A</v>
       </c>
       <c r="F142" s="5">
         <v>106</v>
       </c>
       <c r="G142" s="5" t="str">
-        <f>CHAR(F142)</f>
+        <f t="shared" si="6"/>
         <v>j</v>
       </c>
     </row>
@@ -4286,14 +4292,14 @@
         <v>196</v>
       </c>
       <c r="E143" s="4" t="str">
-        <f>DEC2HEX(F143)</f>
+        <f t="shared" si="7"/>
         <v>6B</v>
       </c>
       <c r="F143" s="5">
         <v>107</v>
       </c>
       <c r="G143" s="5" t="str">
-        <f>CHAR(F143)</f>
+        <f t="shared" si="6"/>
         <v>k</v>
       </c>
     </row>
@@ -4305,20 +4311,20 @@
         <v>195</v>
       </c>
       <c r="E144" s="4" t="str">
-        <f>DEC2HEX(F144)</f>
+        <f t="shared" si="7"/>
         <v>6C</v>
       </c>
       <c r="F144" s="5">
         <v>108</v>
       </c>
       <c r="G144" s="5" t="str">
-        <f>CHAR(F144)</f>
+        <f t="shared" si="6"/>
         <v>l</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E145" s="4" t="str">
-        <f>DEC2HEX(F145)</f>
+        <f t="shared" si="7"/>
         <v>6D</v>
       </c>
       <c r="F145" s="5">
@@ -4345,14 +4351,14 @@
         <v>3</v>
       </c>
       <c r="E146" s="4" t="str">
-        <f>DEC2HEX(F146)</f>
+        <f t="shared" si="7"/>
         <v>6E</v>
       </c>
       <c r="F146" s="5">
         <v>110</v>
       </c>
       <c r="G146" s="5" t="str">
-        <f>CHAR(F146)</f>
+        <f t="shared" ref="G146:G177" si="8">CHAR(F146)</f>
         <v>n</v>
       </c>
       <c r="J146" s="4"/>
@@ -4371,14 +4377,14 @@
         <v>135</v>
       </c>
       <c r="E147" s="4" t="str">
-        <f>DEC2HEX(F147)</f>
+        <f t="shared" si="7"/>
         <v>6F</v>
       </c>
       <c r="F147" s="4">
         <v>111</v>
       </c>
       <c r="G147" s="5" t="str">
-        <f>CHAR(F147)</f>
+        <f t="shared" si="8"/>
         <v>o</v>
       </c>
     </row>
@@ -4396,14 +4402,14 @@
         <v>715</v>
       </c>
       <c r="E148" s="4" t="str">
-        <f>DEC2HEX(F148)</f>
+        <f t="shared" si="7"/>
         <v>6F</v>
       </c>
       <c r="F148" s="4">
         <v>111</v>
       </c>
       <c r="G148" s="5" t="str">
-        <f>CHAR(F148)</f>
+        <f t="shared" si="8"/>
         <v>o</v>
       </c>
       <c r="I148" s="5">
@@ -4427,14 +4433,14 @@
         <v>215</v>
       </c>
       <c r="E149" s="4" t="str">
-        <f>DEC2HEX(F149)</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="F149" s="5">
         <v>112</v>
       </c>
       <c r="G149" s="5" t="str">
-        <f>CHAR(F149)</f>
+        <f t="shared" si="8"/>
         <v>p</v>
       </c>
     </row>
@@ -4446,14 +4452,14 @@
         <v>54</v>
       </c>
       <c r="E150" s="4" t="str">
-        <f>DEC2HEX(F150)</f>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="F150" s="5">
         <v>113</v>
       </c>
       <c r="G150" s="5" t="str">
-        <f>CHAR(F150)</f>
+        <f t="shared" si="8"/>
         <v>q</v>
       </c>
     </row>
@@ -4471,14 +4477,14 @@
         <v>247</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f>DEC2HEX(F151)</f>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="F151" s="5">
         <v>114</v>
       </c>
       <c r="G151" s="5" t="str">
-        <f>CHAR(F151)</f>
+        <f t="shared" si="8"/>
         <v>r</v>
       </c>
     </row>
@@ -4496,14 +4502,14 @@
         <v>243</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f>DEC2HEX(F152)</f>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="F152" s="5">
         <v>115</v>
       </c>
       <c r="G152" s="5" t="str">
-        <f>CHAR(F152)</f>
+        <f t="shared" si="8"/>
         <v>s</v>
       </c>
     </row>
@@ -4521,14 +4527,14 @@
         <v>1023</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f>DEC2HEX(F153)</f>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="F153" s="5">
         <v>116</v>
       </c>
       <c r="G153" s="5" t="str">
-        <f>CHAR(F153)</f>
+        <f t="shared" si="8"/>
         <v>t</v>
       </c>
     </row>
@@ -4546,14 +4552,14 @@
         <v>1019</v>
       </c>
       <c r="E154" s="4" t="str">
-        <f>DEC2HEX(F154)</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="F154" s="5">
         <v>117</v>
       </c>
       <c r="G154" s="5" t="str">
-        <f>CHAR(F154)</f>
+        <f t="shared" si="8"/>
         <v>u</v>
       </c>
     </row>
@@ -4571,14 +4577,14 @@
         <v>543</v>
       </c>
       <c r="E155" s="4" t="str">
-        <f>DEC2HEX(F155)</f>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="F155" s="5">
         <v>118</v>
       </c>
       <c r="G155" s="5" t="str">
-        <f>CHAR(F155)</f>
+        <f t="shared" si="8"/>
         <v>v</v>
       </c>
     </row>
@@ -4596,14 +4602,14 @@
         <v>547</v>
       </c>
       <c r="E156" s="4" t="str">
-        <f>DEC2HEX(F156)</f>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="F156" s="5">
         <v>119</v>
       </c>
       <c r="G156" s="5" t="str">
-        <f>CHAR(F156)</f>
+        <f t="shared" si="8"/>
         <v>w</v>
       </c>
     </row>
@@ -4621,14 +4627,14 @@
         <v>557</v>
       </c>
       <c r="E157" s="4" t="str">
-        <f>DEC2HEX(F157)</f>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="F157" s="5">
         <v>120</v>
       </c>
       <c r="G157" s="5" t="str">
-        <f>CHAR(F157)</f>
+        <f t="shared" si="8"/>
         <v>x</v>
       </c>
     </row>
@@ -4646,14 +4652,14 @@
         <v>463</v>
       </c>
       <c r="E158" s="4" t="str">
-        <f>DEC2HEX(F158)</f>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="F158" s="5">
         <v>121</v>
       </c>
       <c r="G158" s="5" t="str">
-        <f>CHAR(F158)</f>
+        <f t="shared" si="8"/>
         <v>y</v>
       </c>
     </row>
@@ -4671,14 +4677,14 @@
         <v>471</v>
       </c>
       <c r="E159" s="4" t="str">
-        <f>DEC2HEX(F159)</f>
+        <f t="shared" si="7"/>
         <v>7A</v>
       </c>
       <c r="F159" s="5">
         <v>122</v>
       </c>
       <c r="G159" s="5" t="str">
-        <f>CHAR(F159)</f>
+        <f t="shared" si="8"/>
         <v>z</v>
       </c>
     </row>
@@ -4696,14 +4702,14 @@
         <v>521</v>
       </c>
       <c r="E160" s="4" t="str">
-        <f>DEC2HEX(F160)</f>
+        <f t="shared" si="7"/>
         <v>7B</v>
       </c>
       <c r="F160" s="5">
         <v>123</v>
       </c>
       <c r="G160" s="5" t="str">
-        <f>CHAR(F160)</f>
+        <f t="shared" si="8"/>
         <v>{</v>
       </c>
     </row>
@@ -4721,14 +4727,14 @@
         <v>975</v>
       </c>
       <c r="E161" s="4" t="str">
-        <f>DEC2HEX(F161)</f>
+        <f t="shared" si="7"/>
         <v>7C</v>
       </c>
       <c r="F161" s="5">
         <v>124</v>
       </c>
       <c r="G161" s="5" t="str">
-        <f>CHAR(F161)</f>
+        <f t="shared" si="8"/>
         <v>|</v>
       </c>
     </row>
@@ -4746,14 +4752,14 @@
         <v>979</v>
       </c>
       <c r="E162" s="4" t="str">
-        <f>DEC2HEX(F162)</f>
+        <f t="shared" si="7"/>
         <v>7C</v>
       </c>
       <c r="F162" s="5">
         <v>124</v>
       </c>
       <c r="G162" s="5" t="str">
-        <f>CHAR(F162)</f>
+        <f t="shared" si="8"/>
         <v>|</v>
       </c>
     </row>
@@ -4771,14 +4777,14 @@
         <v>983</v>
       </c>
       <c r="E163" s="4" t="str">
-        <f>DEC2HEX(F163)</f>
+        <f t="shared" si="7"/>
         <v>7C</v>
       </c>
       <c r="F163" s="5">
         <v>124</v>
       </c>
       <c r="G163" s="5" t="str">
-        <f>CHAR(F163)</f>
+        <f t="shared" si="8"/>
         <v>|</v>
       </c>
     </row>
@@ -4796,27 +4802,27 @@
         <v>991</v>
       </c>
       <c r="E164" s="4" t="str">
-        <f>DEC2HEX(F164)</f>
+        <f t="shared" si="7"/>
         <v>7C</v>
       </c>
       <c r="F164" s="5">
         <v>124</v>
       </c>
       <c r="G164" s="5" t="str">
-        <f>CHAR(F164)</f>
+        <f t="shared" si="8"/>
         <v>|</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E165" s="4" t="str">
-        <f>DEC2HEX(F165)</f>
+        <f t="shared" si="7"/>
         <v>7C</v>
       </c>
       <c r="F165" s="5">
         <v>124</v>
       </c>
       <c r="G165" s="5" t="str">
-        <f>CHAR(F165)</f>
+        <f t="shared" si="8"/>
         <v>|</v>
       </c>
       <c r="H165" s="4" t="s">
@@ -4837,40 +4843,46 @@
         <v>139</v>
       </c>
       <c r="E166" s="4" t="str">
-        <f>DEC2HEX(F166)</f>
+        <f t="shared" si="7"/>
         <v>7D</v>
       </c>
       <c r="F166" s="5">
         <v>125</v>
       </c>
       <c r="G166" s="5" t="str">
-        <f>CHAR(F166)</f>
+        <f t="shared" si="8"/>
         <v>}</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="E167" s="4" t="str">
-        <f>DEC2HEX(F167)</f>
+        <f t="shared" si="7"/>
         <v>7E</v>
       </c>
       <c r="F167" s="5">
         <v>126</v>
       </c>
       <c r="G167" s="5" t="str">
-        <f>CHAR(F167)</f>
+        <f t="shared" si="8"/>
         <v>~</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E168" s="1" t="str">
-        <f>DEC2HEX(F168)</f>
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
       <c r="F168" s="2">
         <v>127</v>
       </c>
       <c r="G168" s="2" t="str">
-        <f>CHAR(F168)</f>
+        <f t="shared" si="8"/>
         <v></v>
       </c>
       <c r="H168" s="1" t="s">
@@ -4879,14 +4891,14 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E169" s="1" t="str">
-        <f>DEC2HEX(F169)</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="F169" s="2">
         <v>128</v>
       </c>
       <c r="G169" s="2" t="str">
-        <f>CHAR(F169)</f>
+        <f t="shared" si="8"/>
         <v>€</v>
       </c>
       <c r="H169" s="1" t="s">
@@ -4895,14 +4907,14 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E170" s="1" t="str">
-        <f>DEC2HEX(F170)</f>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="F170" s="2">
         <v>129</v>
       </c>
       <c r="G170" s="2" t="str">
-        <f>CHAR(F170)</f>
+        <f t="shared" si="8"/>
         <v></v>
       </c>
       <c r="H170" s="1" t="s">
@@ -4911,14 +4923,14 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E171" s="1" t="str">
-        <f>DEC2HEX(F171)</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="F171" s="2">
         <v>130</v>
       </c>
       <c r="G171" s="2" t="str">
-        <f>CHAR(F171)</f>
+        <f t="shared" si="8"/>
         <v>‚</v>
       </c>
       <c r="H171" s="1" t="s">
@@ -4927,14 +4939,14 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E172" s="1" t="str">
-        <f>DEC2HEX(F172)</f>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="F172" s="2">
         <v>131</v>
       </c>
       <c r="G172" s="2" t="str">
-        <f>CHAR(F172)</f>
+        <f t="shared" si="8"/>
         <v>ƒ</v>
       </c>
       <c r="H172" s="1" t="s">
@@ -4943,14 +4955,14 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E173" s="1" t="str">
-        <f>DEC2HEX(F173)</f>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="F173" s="2">
         <v>132</v>
       </c>
       <c r="G173" s="2" t="str">
-        <f>CHAR(F173)</f>
+        <f t="shared" si="8"/>
         <v>„</v>
       </c>
       <c r="H173" s="1" t="s">
@@ -4959,14 +4971,14 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E174" s="1" t="str">
-        <f>DEC2HEX(F174)</f>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="F174" s="2">
         <v>133</v>
       </c>
       <c r="G174" s="2" t="str">
-        <f>CHAR(F174)</f>
+        <f t="shared" si="8"/>
         <v>…</v>
       </c>
       <c r="H174" s="1" t="s">
@@ -4975,14 +4987,14 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E175" s="1" t="str">
-        <f>DEC2HEX(F175)</f>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="F175" s="2">
         <v>134</v>
       </c>
       <c r="G175" s="2" t="str">
-        <f>CHAR(F175)</f>
+        <f t="shared" si="8"/>
         <v>†</v>
       </c>
       <c r="H175" s="1" t="s">
@@ -4991,14 +5003,14 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E176" s="1" t="str">
-        <f>DEC2HEX(F176)</f>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="F176" s="2">
         <v>135</v>
       </c>
       <c r="G176" s="2" t="str">
-        <f>CHAR(F176)</f>
+        <f t="shared" si="8"/>
         <v>‡</v>
       </c>
       <c r="H176" s="1" t="s">
@@ -5007,14 +5019,14 @@
     </row>
     <row r="177" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E177" s="1" t="str">
-        <f>DEC2HEX(F177)</f>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="F177" s="2">
         <v>136</v>
       </c>
       <c r="G177" s="2" t="str">
-        <f>CHAR(F177)</f>
+        <f t="shared" si="8"/>
         <v>ˆ</v>
       </c>
       <c r="H177" s="1" t="s">
@@ -5023,14 +5035,14 @@
     </row>
     <row r="178" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E178" s="1" t="str">
-        <f>DEC2HEX(F178)</f>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="F178" s="2">
         <v>137</v>
       </c>
       <c r="G178" s="2" t="str">
-        <f>CHAR(F178)</f>
+        <f t="shared" ref="G178:G209" si="9">CHAR(F178)</f>
         <v>‰</v>
       </c>
       <c r="H178" s="1" t="s">
@@ -5039,14 +5051,14 @@
     </row>
     <row r="179" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E179" s="1" t="str">
-        <f>DEC2HEX(F179)</f>
+        <f t="shared" si="7"/>
         <v>8A</v>
       </c>
       <c r="F179" s="2">
         <v>138</v>
       </c>
       <c r="G179" s="2" t="str">
-        <f>CHAR(F179)</f>
+        <f t="shared" si="9"/>
         <v>Š</v>
       </c>
       <c r="H179" s="1" t="s">
@@ -5055,14 +5067,14 @@
     </row>
     <row r="180" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E180" s="1" t="str">
-        <f>DEC2HEX(F180)</f>
+        <f t="shared" si="7"/>
         <v>8B</v>
       </c>
       <c r="F180" s="2">
         <v>139</v>
       </c>
       <c r="G180" s="2" t="str">
-        <f>CHAR(F180)</f>
+        <f t="shared" si="9"/>
         <v>‹</v>
       </c>
       <c r="H180" s="1" t="s">
@@ -5071,14 +5083,14 @@
     </row>
     <row r="181" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E181" s="1" t="str">
-        <f>DEC2HEX(F181)</f>
+        <f t="shared" si="7"/>
         <v>8C</v>
       </c>
       <c r="F181" s="2">
         <v>140</v>
       </c>
       <c r="G181" s="2" t="str">
-        <f>CHAR(F181)</f>
+        <f t="shared" si="9"/>
         <v>Œ</v>
       </c>
       <c r="H181" s="1" t="s">
@@ -5087,14 +5099,14 @@
     </row>
     <row r="182" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E182" s="1" t="str">
-        <f>DEC2HEX(F182)</f>
+        <f t="shared" si="7"/>
         <v>8D</v>
       </c>
       <c r="F182" s="2">
         <v>141</v>
       </c>
       <c r="G182" s="2" t="str">
-        <f>CHAR(F182)</f>
+        <f t="shared" si="9"/>
         <v></v>
       </c>
       <c r="H182" s="1" t="s">
@@ -5103,14 +5115,14 @@
     </row>
     <row r="183" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E183" s="1" t="str">
-        <f>DEC2HEX(F183)</f>
+        <f t="shared" si="7"/>
         <v>8E</v>
       </c>
       <c r="F183" s="2">
         <v>142</v>
       </c>
       <c r="G183" s="2" t="str">
-        <f>CHAR(F183)</f>
+        <f t="shared" si="9"/>
         <v>Ž</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -5119,14 +5131,14 @@
     </row>
     <row r="184" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E184" s="1" t="str">
-        <f>DEC2HEX(F184)</f>
+        <f t="shared" si="7"/>
         <v>8F</v>
       </c>
       <c r="F184" s="2">
         <v>143</v>
       </c>
       <c r="G184" s="2" t="str">
-        <f>CHAR(F184)</f>
+        <f t="shared" si="9"/>
         <v></v>
       </c>
       <c r="H184" s="1" t="s">
@@ -5135,14 +5147,14 @@
     </row>
     <row r="185" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E185" s="1" t="str">
-        <f>DEC2HEX(F185)</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="F185" s="2">
         <v>144</v>
       </c>
       <c r="G185" s="2" t="str">
-        <f>CHAR(F185)</f>
+        <f t="shared" si="9"/>
         <v></v>
       </c>
       <c r="H185" s="1" t="s">
@@ -5151,14 +5163,14 @@
     </row>
     <row r="186" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E186" s="1" t="str">
-        <f>DEC2HEX(F186)</f>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="F186" s="2">
         <v>145</v>
       </c>
       <c r="G186" s="2" t="str">
-        <f>CHAR(F186)</f>
+        <f t="shared" si="9"/>
         <v>‘</v>
       </c>
       <c r="H186" s="1" t="s">
@@ -5167,14 +5179,14 @@
     </row>
     <row r="187" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E187" s="1" t="str">
-        <f>DEC2HEX(F187)</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="F187" s="2">
         <v>146</v>
       </c>
       <c r="G187" s="2" t="str">
-        <f>CHAR(F187)</f>
+        <f t="shared" si="9"/>
         <v>’</v>
       </c>
       <c r="H187" s="1" t="s">
@@ -5183,14 +5195,14 @@
     </row>
     <row r="188" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E188" s="1" t="str">
-        <f>DEC2HEX(F188)</f>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="F188" s="2">
         <v>147</v>
       </c>
       <c r="G188" s="2" t="str">
-        <f>CHAR(F188)</f>
+        <f t="shared" si="9"/>
         <v>“</v>
       </c>
       <c r="H188" s="1" t="s">
@@ -5199,14 +5211,14 @@
     </row>
     <row r="189" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E189" s="1" t="str">
-        <f>DEC2HEX(F189)</f>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="F189" s="2">
         <v>148</v>
       </c>
       <c r="G189" s="2" t="str">
-        <f>CHAR(F189)</f>
+        <f t="shared" si="9"/>
         <v>”</v>
       </c>
       <c r="H189" s="1" t="s">
@@ -5215,14 +5227,14 @@
     </row>
     <row r="190" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E190" s="1" t="str">
-        <f>DEC2HEX(F190)</f>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="F190" s="2">
         <v>149</v>
       </c>
       <c r="G190" s="2" t="str">
-        <f>CHAR(F190)</f>
+        <f t="shared" si="9"/>
         <v>•</v>
       </c>
       <c r="H190" s="1" t="s">
@@ -5231,14 +5243,14 @@
     </row>
     <row r="191" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E191" s="1" t="str">
-        <f>DEC2HEX(F191)</f>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="F191" s="2">
         <v>150</v>
       </c>
       <c r="G191" s="2" t="str">
-        <f>CHAR(F191)</f>
+        <f t="shared" si="9"/>
         <v>–</v>
       </c>
       <c r="H191" s="1" t="s">
@@ -5247,14 +5259,14 @@
     </row>
     <row r="192" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E192" s="1" t="str">
-        <f>DEC2HEX(F192)</f>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="F192" s="2">
         <v>151</v>
       </c>
       <c r="G192" s="2" t="str">
-        <f>CHAR(F192)</f>
+        <f t="shared" si="9"/>
         <v>—</v>
       </c>
       <c r="H192" s="1" t="s">
@@ -5263,14 +5275,14 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E193" s="1" t="str">
-        <f>DEC2HEX(F193)</f>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="F193" s="2">
         <v>152</v>
       </c>
       <c r="G193" s="2" t="str">
-        <f>CHAR(F193)</f>
+        <f t="shared" si="9"/>
         <v>˜</v>
       </c>
       <c r="H193" s="1" t="s">
@@ -5279,14 +5291,14 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E194" s="1" t="str">
-        <f>DEC2HEX(F194)</f>
+        <f t="shared" ref="E194:E257" si="10">DEC2HEX(F194)</f>
         <v>99</v>
       </c>
       <c r="F194" s="2">
         <v>153</v>
       </c>
       <c r="G194" s="2" t="str">
-        <f>CHAR(F194)</f>
+        <f t="shared" si="9"/>
         <v>™</v>
       </c>
       <c r="H194" s="1" t="s">
@@ -5295,14 +5307,14 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E195" s="1" t="str">
-        <f>DEC2HEX(F195)</f>
+        <f t="shared" si="10"/>
         <v>9A</v>
       </c>
       <c r="F195" s="2">
         <v>154</v>
       </c>
       <c r="G195" s="2" t="str">
-        <f>CHAR(F195)</f>
+        <f t="shared" si="9"/>
         <v>š</v>
       </c>
       <c r="H195" s="1" t="s">
@@ -5311,14 +5323,14 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E196" s="1" t="str">
-        <f>DEC2HEX(F196)</f>
+        <f t="shared" si="10"/>
         <v>9B</v>
       </c>
       <c r="F196" s="2">
         <v>155</v>
       </c>
       <c r="G196" s="2" t="str">
-        <f>CHAR(F196)</f>
+        <f t="shared" si="9"/>
         <v>›</v>
       </c>
       <c r="H196" s="1" t="s">
@@ -5327,14 +5339,14 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E197" s="1" t="str">
-        <f>DEC2HEX(F197)</f>
+        <f t="shared" si="10"/>
         <v>9C</v>
       </c>
       <c r="F197" s="2">
         <v>156</v>
       </c>
       <c r="G197" s="2" t="str">
-        <f>CHAR(F197)</f>
+        <f t="shared" si="9"/>
         <v>œ</v>
       </c>
       <c r="H197" s="1" t="s">
@@ -5343,14 +5355,14 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E198" s="1" t="str">
-        <f>DEC2HEX(F198)</f>
+        <f t="shared" si="10"/>
         <v>9D</v>
       </c>
       <c r="F198" s="2">
         <v>157</v>
       </c>
       <c r="G198" s="2" t="str">
-        <f>CHAR(F198)</f>
+        <f t="shared" si="9"/>
         <v></v>
       </c>
       <c r="H198" s="1" t="s">
@@ -5359,14 +5371,14 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E199" s="1" t="str">
-        <f>DEC2HEX(F199)</f>
+        <f t="shared" si="10"/>
         <v>9E</v>
       </c>
       <c r="F199" s="2">
         <v>158</v>
       </c>
       <c r="G199" s="2" t="str">
-        <f>CHAR(F199)</f>
+        <f t="shared" si="9"/>
         <v>ž</v>
       </c>
       <c r="H199" s="1" t="s">
@@ -5375,14 +5387,14 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E200" s="1" t="str">
-        <f>DEC2HEX(F200)</f>
+        <f t="shared" si="10"/>
         <v>9F</v>
       </c>
       <c r="F200" s="2">
         <v>159</v>
       </c>
       <c r="G200" s="2" t="str">
-        <f>CHAR(F200)</f>
+        <f t="shared" si="9"/>
         <v>Ÿ</v>
       </c>
       <c r="H200" s="1" t="s">
@@ -5391,14 +5403,14 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E201" s="1" t="str">
-        <f>DEC2HEX(F201)</f>
+        <f t="shared" si="10"/>
         <v>A0</v>
       </c>
       <c r="F201" s="2">
         <v>160</v>
       </c>
       <c r="G201" s="2" t="str">
-        <f>CHAR(F201)</f>
+        <f t="shared" si="9"/>
         <v> </v>
       </c>
       <c r="H201" s="1" t="s">
@@ -5419,14 +5431,14 @@
         <v>7</v>
       </c>
       <c r="E202" s="4" t="str">
-        <f>DEC2HEX(F202)</f>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="F202" s="5">
         <v>161</v>
       </c>
       <c r="G202" s="5" t="str">
-        <f>CHAR(F202)</f>
+        <f t="shared" si="9"/>
         <v>¡</v>
       </c>
     </row>
@@ -5444,27 +5456,27 @@
         <v>11</v>
       </c>
       <c r="E203" s="4" t="str">
-        <f>DEC2HEX(F203)</f>
+        <f t="shared" si="10"/>
         <v>A2</v>
       </c>
       <c r="F203" s="5">
         <v>162</v>
       </c>
       <c r="G203" s="5" t="str">
-        <f>CHAR(F203)</f>
+        <f t="shared" si="9"/>
         <v>¢</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E204" s="4" t="str">
-        <f>DEC2HEX(F204)</f>
+        <f t="shared" si="10"/>
         <v>A3</v>
       </c>
       <c r="F204" s="5">
         <v>163</v>
       </c>
       <c r="G204" s="5" t="str">
-        <f>CHAR(F204)</f>
+        <f t="shared" si="9"/>
         <v>£</v>
       </c>
       <c r="H204" s="4" t="s">
@@ -5473,14 +5485,14 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E205" s="4" t="str">
-        <f>DEC2HEX(F205)</f>
+        <f t="shared" si="10"/>
         <v>A4</v>
       </c>
       <c r="F205" s="5">
         <v>164</v>
       </c>
       <c r="G205" s="5" t="str">
-        <f>CHAR(F205)</f>
+        <f t="shared" si="9"/>
         <v>¤</v>
       </c>
       <c r="H205" s="4" t="s">
@@ -5495,14 +5507,14 @@
         <v>67</v>
       </c>
       <c r="E206" s="4" t="str">
-        <f>DEC2HEX(F206)</f>
+        <f t="shared" si="10"/>
         <v>A5</v>
       </c>
       <c r="F206" s="5">
         <v>165</v>
       </c>
       <c r="G206" s="5" t="str">
-        <f>CHAR(F206)</f>
+        <f t="shared" si="9"/>
         <v>¥</v>
       </c>
     </row>
@@ -5514,14 +5526,14 @@
         <v>68</v>
       </c>
       <c r="E207" s="4" t="str">
-        <f>DEC2HEX(F207)</f>
+        <f t="shared" si="10"/>
         <v>A6</v>
       </c>
       <c r="F207" s="5">
         <v>166</v>
       </c>
       <c r="G207" s="5" t="str">
-        <f>CHAR(F207)</f>
+        <f t="shared" si="9"/>
         <v>¦</v>
       </c>
     </row>
@@ -5539,14 +5551,14 @@
         <v>15</v>
       </c>
       <c r="E208" s="4" t="str">
-        <f>DEC2HEX(F208)</f>
+        <f t="shared" si="10"/>
         <v>A7</v>
       </c>
       <c r="F208" s="5">
         <v>167</v>
       </c>
       <c r="G208" s="5" t="str">
-        <f>CHAR(F208)</f>
+        <f t="shared" si="9"/>
         <v>§</v>
       </c>
     </row>
@@ -5564,27 +5576,27 @@
         <v>19</v>
       </c>
       <c r="E209" s="4" t="str">
-        <f>DEC2HEX(F209)</f>
+        <f t="shared" si="10"/>
         <v>A8</v>
       </c>
       <c r="F209" s="5">
         <v>168</v>
       </c>
       <c r="G209" s="5" t="str">
-        <f>CHAR(F209)</f>
+        <f t="shared" si="9"/>
         <v>¨</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E210" s="4" t="str">
-        <f>DEC2HEX(F210)</f>
+        <f t="shared" si="10"/>
         <v>A9</v>
       </c>
       <c r="F210" s="5">
         <v>169</v>
       </c>
       <c r="G210" s="5" t="str">
-        <f>CHAR(F210)</f>
+        <f t="shared" ref="G210:G241" si="11">CHAR(F210)</f>
         <v>©</v>
       </c>
       <c r="H210" s="4" t="s">
@@ -5593,14 +5605,14 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E211" s="4" t="str">
-        <f>DEC2HEX(F211)</f>
+        <f t="shared" si="10"/>
         <v>AA</v>
       </c>
       <c r="F211" s="5">
         <v>170</v>
       </c>
       <c r="G211" s="5" t="str">
-        <f>CHAR(F211)</f>
+        <f t="shared" si="11"/>
         <v>ª</v>
       </c>
       <c r="H211" s="4" t="s">
@@ -5615,14 +5627,14 @@
         <v>69</v>
       </c>
       <c r="E212" s="4" t="str">
-        <f>DEC2HEX(F212)</f>
+        <f t="shared" si="10"/>
         <v>AB</v>
       </c>
       <c r="F212" s="5">
         <v>171</v>
       </c>
       <c r="G212" s="5" t="str">
-        <f>CHAR(F212)</f>
+        <f t="shared" si="11"/>
         <v>«</v>
       </c>
     </row>
@@ -5634,27 +5646,27 @@
         <v>70</v>
       </c>
       <c r="E213" s="4" t="str">
-        <f>DEC2HEX(F213)</f>
+        <f t="shared" si="10"/>
         <v>AC</v>
       </c>
       <c r="F213" s="5">
         <v>172</v>
       </c>
       <c r="G213" s="5" t="str">
-        <f>CHAR(F213)</f>
+        <f t="shared" si="11"/>
         <v>¬</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E214" s="1" t="str">
-        <f>DEC2HEX(F214)</f>
+        <f t="shared" si="10"/>
         <v>AD</v>
       </c>
       <c r="F214" s="2">
         <v>173</v>
       </c>
       <c r="G214" s="2" t="str">
-        <f>CHAR(F214)</f>
+        <f t="shared" si="11"/>
         <v>­</v>
       </c>
       <c r="H214" s="1" t="s">
@@ -5675,14 +5687,14 @@
         <v>27</v>
       </c>
       <c r="E215" s="4" t="str">
-        <f>DEC2HEX(F215)</f>
+        <f t="shared" si="10"/>
         <v>AE</v>
       </c>
       <c r="F215" s="5">
         <v>174</v>
       </c>
       <c r="G215" s="5" t="str">
-        <f>CHAR(F215)</f>
+        <f t="shared" si="11"/>
         <v>®</v>
       </c>
       <c r="I215" s="4"/>
@@ -5701,14 +5713,14 @@
         <v>31</v>
       </c>
       <c r="E216" s="4" t="str">
-        <f>DEC2HEX(F216)</f>
+        <f t="shared" si="10"/>
         <v>AF</v>
       </c>
       <c r="F216" s="5">
         <v>175</v>
       </c>
       <c r="G216" s="5" t="str">
-        <f>CHAR(F216)</f>
+        <f t="shared" si="11"/>
         <v>¯</v>
       </c>
       <c r="I216" s="4"/>
@@ -5727,14 +5739,14 @@
         <v>35</v>
       </c>
       <c r="E217" s="4" t="str">
-        <f>DEC2HEX(F217)</f>
+        <f t="shared" si="10"/>
         <v>B0</v>
       </c>
       <c r="F217" s="5">
         <v>176</v>
       </c>
       <c r="G217" s="5" t="str">
-        <f>CHAR(F217)</f>
+        <f t="shared" si="11"/>
         <v>°</v>
       </c>
       <c r="I217" s="4"/>
@@ -5747,14 +5759,14 @@
         <v>71</v>
       </c>
       <c r="E218" s="4" t="str">
-        <f>DEC2HEX(F218)</f>
+        <f t="shared" si="10"/>
         <v>B1</v>
       </c>
       <c r="F218" s="5">
         <v>177</v>
       </c>
       <c r="G218" s="5" t="str">
-        <f>CHAR(F218)</f>
+        <f t="shared" si="11"/>
         <v>±</v>
       </c>
     </row>
@@ -5766,14 +5778,14 @@
         <v>72</v>
       </c>
       <c r="E219" s="4" t="str">
-        <f>DEC2HEX(F219)</f>
+        <f t="shared" si="10"/>
         <v>B2</v>
       </c>
       <c r="F219" s="5">
         <v>178</v>
       </c>
       <c r="G219" s="5" t="str">
-        <f>CHAR(F219)</f>
+        <f t="shared" si="11"/>
         <v>²</v>
       </c>
     </row>
@@ -5791,28 +5803,28 @@
         <v>39</v>
       </c>
       <c r="E220" s="4" t="str">
-        <f>DEC2HEX(F220)</f>
+        <f t="shared" si="10"/>
         <v>B3</v>
       </c>
       <c r="F220" s="5">
         <v>179</v>
       </c>
       <c r="G220" s="5" t="str">
-        <f>CHAR(F220)</f>
+        <f t="shared" si="11"/>
         <v>³</v>
       </c>
       <c r="I220" s="4"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E221" s="1" t="str">
-        <f>DEC2HEX(F221)</f>
+        <f t="shared" si="10"/>
         <v>B4</v>
       </c>
       <c r="F221" s="2">
         <v>180</v>
       </c>
       <c r="G221" s="2" t="str">
-        <f>CHAR(F221)</f>
+        <f t="shared" si="11"/>
         <v>´</v>
       </c>
       <c r="H221" s="1" t="s">
@@ -5833,14 +5845,14 @@
         <v>49</v>
       </c>
       <c r="E222" s="4" t="str">
-        <f>DEC2HEX(F222)</f>
+        <f t="shared" si="10"/>
         <v>B5</v>
       </c>
       <c r="F222" s="5">
         <v>181</v>
       </c>
       <c r="G222" s="5" t="str">
-        <f>CHAR(F222)</f>
+        <f t="shared" si="11"/>
         <v>µ</v>
       </c>
     </row>
@@ -5858,14 +5870,14 @@
         <v>701</v>
       </c>
       <c r="E223" s="4" t="str">
-        <f>DEC2HEX(F223)</f>
+        <f t="shared" si="10"/>
         <v>B6</v>
       </c>
       <c r="F223" s="5">
         <v>182</v>
       </c>
       <c r="G223" s="5" t="str">
-        <f>CHAR(F223)</f>
+        <f t="shared" si="11"/>
         <v>¶</v>
       </c>
       <c r="I223" s="5">
@@ -5883,14 +5895,14 @@
         <v>74</v>
       </c>
       <c r="E224" s="4" t="str">
-        <f>DEC2HEX(F224)</f>
+        <f t="shared" si="10"/>
         <v>B7</v>
       </c>
       <c r="F224" s="5">
         <v>183</v>
       </c>
       <c r="G224" s="5" t="str">
-        <f>CHAR(F224)</f>
+        <f t="shared" si="11"/>
         <v>·</v>
       </c>
     </row>
@@ -5902,14 +5914,14 @@
         <v>75</v>
       </c>
       <c r="E225" s="4" t="str">
-        <f>DEC2HEX(F225)</f>
+        <f t="shared" si="10"/>
         <v>B8</v>
       </c>
       <c r="F225" s="5">
         <v>184</v>
       </c>
       <c r="G225" s="5" t="str">
-        <f>CHAR(F225)</f>
+        <f t="shared" si="11"/>
         <v>¸</v>
       </c>
     </row>
@@ -5927,14 +5939,14 @@
         <v>475</v>
       </c>
       <c r="E226" s="4" t="str">
-        <f>DEC2HEX(F226)</f>
+        <f t="shared" si="10"/>
         <v>B9</v>
       </c>
       <c r="F226" s="5">
         <v>185</v>
       </c>
       <c r="G226" s="5" t="str">
-        <f>CHAR(F226)</f>
+        <f t="shared" si="11"/>
         <v>¹</v>
       </c>
     </row>
@@ -5952,14 +5964,14 @@
         <v>995</v>
       </c>
       <c r="E227" s="4" t="str">
-        <f>DEC2HEX(F227)</f>
+        <f t="shared" si="10"/>
         <v>B9</v>
       </c>
       <c r="F227" s="5">
         <v>185</v>
       </c>
       <c r="G227" s="5" t="str">
-        <f>CHAR(F227)</f>
+        <f t="shared" si="11"/>
         <v>¹</v>
       </c>
     </row>
@@ -5977,14 +5989,14 @@
         <v>999</v>
       </c>
       <c r="E228" s="4" t="str">
-        <f>DEC2HEX(F228)</f>
+        <f t="shared" si="10"/>
         <v>B9</v>
       </c>
       <c r="F228" s="5">
         <v>185</v>
       </c>
       <c r="G228" s="5" t="str">
-        <f>CHAR(F228)</f>
+        <f t="shared" si="11"/>
         <v>¹</v>
       </c>
     </row>
@@ -6002,14 +6014,14 @@
         <v>1003</v>
       </c>
       <c r="E229" s="4" t="str">
-        <f>DEC2HEX(F229)</f>
+        <f t="shared" si="10"/>
         <v>B9</v>
       </c>
       <c r="F229" s="5">
         <v>185</v>
       </c>
       <c r="G229" s="5" t="str">
-        <f>CHAR(F229)</f>
+        <f t="shared" si="11"/>
         <v>¹</v>
       </c>
     </row>
@@ -6027,14 +6039,14 @@
         <v>479</v>
       </c>
       <c r="E230" s="4" t="str">
-        <f>DEC2HEX(F230)</f>
+        <f t="shared" si="10"/>
         <v>BA</v>
       </c>
       <c r="F230" s="5">
         <v>186</v>
       </c>
       <c r="G230" s="5" t="str">
-        <f>CHAR(F230)</f>
+        <f t="shared" si="11"/>
         <v>º</v>
       </c>
     </row>
@@ -6052,14 +6064,14 @@
         <v>1007</v>
       </c>
       <c r="E231" s="4" t="str">
-        <f>DEC2HEX(F231)</f>
+        <f t="shared" si="10"/>
         <v>BA</v>
       </c>
       <c r="F231" s="5">
         <v>186</v>
       </c>
       <c r="G231" s="5" t="str">
-        <f>CHAR(F231)</f>
+        <f t="shared" si="11"/>
         <v>º</v>
       </c>
     </row>
@@ -6077,14 +6089,14 @@
         <v>1011</v>
       </c>
       <c r="E232" s="4" t="str">
-        <f>DEC2HEX(F232)</f>
+        <f t="shared" si="10"/>
         <v>BA</v>
       </c>
       <c r="F232" s="5">
         <v>186</v>
       </c>
       <c r="G232" s="5" t="str">
-        <f>CHAR(F232)</f>
+        <f t="shared" si="11"/>
         <v>º</v>
       </c>
     </row>
@@ -6102,14 +6114,14 @@
         <v>1015</v>
       </c>
       <c r="E233" s="4" t="str">
-        <f>DEC2HEX(F233)</f>
+        <f t="shared" si="10"/>
         <v>BA</v>
       </c>
       <c r="F233" s="5">
         <v>186</v>
       </c>
       <c r="G233" s="5" t="str">
-        <f>CHAR(F233)</f>
+        <f t="shared" si="11"/>
         <v>º</v>
       </c>
     </row>
@@ -6127,14 +6139,14 @@
         <v>483</v>
       </c>
       <c r="E234" s="4" t="str">
-        <f>DEC2HEX(F234)</f>
+        <f t="shared" si="10"/>
         <v>BB</v>
       </c>
       <c r="F234" s="5">
         <v>187</v>
       </c>
       <c r="G234" s="5" t="str">
-        <f>CHAR(F234)</f>
+        <f t="shared" si="11"/>
         <v>»</v>
       </c>
     </row>
@@ -6152,14 +6164,14 @@
         <v>487</v>
       </c>
       <c r="E235" s="4" t="str">
-        <f>DEC2HEX(F235)</f>
+        <f t="shared" si="10"/>
         <v>BC</v>
       </c>
       <c r="F235" s="5">
         <v>188</v>
       </c>
       <c r="G235" s="5" t="str">
-        <f>CHAR(F235)</f>
+        <f t="shared" si="11"/>
         <v>¼</v>
       </c>
     </row>
@@ -6177,14 +6189,14 @@
         <v>497</v>
       </c>
       <c r="E236" s="4" t="str">
-        <f>DEC2HEX(F236)</f>
+        <f t="shared" si="10"/>
         <v>BD</v>
       </c>
       <c r="F236" s="5">
         <v>189</v>
       </c>
       <c r="G236" s="5" t="str">
-        <f>CHAR(F236)</f>
+        <f t="shared" si="11"/>
         <v>½</v>
       </c>
     </row>
@@ -6199,14 +6211,14 @@
         <v>511</v>
       </c>
       <c r="E237" s="4" t="str">
-        <f>DEC2HEX(F237)</f>
+        <f t="shared" si="10"/>
         <v>BE</v>
       </c>
       <c r="F237" s="5">
         <v>190</v>
       </c>
       <c r="G237" s="5" t="str">
-        <f>CHAR(F237)</f>
+        <f t="shared" si="11"/>
         <v>¾</v>
       </c>
     </row>
@@ -6224,14 +6236,14 @@
         <v>625</v>
       </c>
       <c r="E238" s="4" t="str">
-        <f>DEC2HEX(F238)</f>
+        <f t="shared" si="10"/>
         <v>BE</v>
       </c>
       <c r="F238" s="5">
         <v>190</v>
       </c>
       <c r="G238" s="5" t="str">
-        <f>CHAR(F238)</f>
+        <f t="shared" si="11"/>
         <v>¾</v>
       </c>
       <c r="I238" s="5">
@@ -6255,14 +6267,14 @@
         <v>354</v>
       </c>
       <c r="E239" s="4" t="str">
-        <f>DEC2HEX(F239)</f>
+        <f t="shared" si="10"/>
         <v>BF</v>
       </c>
       <c r="F239" s="5">
         <v>191</v>
       </c>
       <c r="G239" s="5" t="str">
-        <f>CHAR(F239)</f>
+        <f t="shared" si="11"/>
         <v>¿</v>
       </c>
     </row>
@@ -6280,14 +6292,14 @@
         <v>369</v>
       </c>
       <c r="E240" s="4" t="str">
-        <f>DEC2HEX(F240)</f>
+        <f t="shared" si="10"/>
         <v>BF</v>
       </c>
       <c r="F240" s="5">
         <v>191</v>
       </c>
       <c r="G240" s="5" t="str">
-        <f>CHAR(F240)</f>
+        <f t="shared" si="11"/>
         <v>¿</v>
       </c>
     </row>
@@ -6305,14 +6317,14 @@
         <v>591</v>
       </c>
       <c r="E241" s="4" t="str">
-        <f>DEC2HEX(F241)</f>
+        <f t="shared" si="10"/>
         <v>BF</v>
       </c>
       <c r="F241" s="5">
         <v>191</v>
       </c>
       <c r="G241" s="5" t="str">
-        <f>CHAR(F241)</f>
+        <f t="shared" si="11"/>
         <v>¿</v>
       </c>
     </row>
@@ -6330,14 +6342,14 @@
         <v>637</v>
       </c>
       <c r="E242" s="4" t="str">
-        <f>DEC2HEX(F242)</f>
+        <f t="shared" si="10"/>
         <v>C0</v>
       </c>
       <c r="F242" s="5">
         <v>192</v>
       </c>
       <c r="G242" s="5" t="str">
-        <f>CHAR(F242)</f>
+        <f t="shared" ref="G242:G273" si="12">CHAR(F242)</f>
         <v>À</v>
       </c>
     </row>
@@ -6355,14 +6367,14 @@
         <v>657</v>
       </c>
       <c r="E243" s="4" t="str">
-        <f>DEC2HEX(F243)</f>
+        <f t="shared" si="10"/>
         <v>C1</v>
       </c>
       <c r="F243" s="5">
         <v>193</v>
       </c>
       <c r="G243" s="5" t="str">
-        <f>CHAR(F243)</f>
+        <f t="shared" si="12"/>
         <v>Á</v>
       </c>
     </row>
@@ -6380,14 +6392,14 @@
         <v>677</v>
       </c>
       <c r="E244" s="4" t="str">
-        <f>DEC2HEX(F244)</f>
+        <f t="shared" si="10"/>
         <v>C2</v>
       </c>
       <c r="F244" s="5">
         <v>194</v>
       </c>
       <c r="G244" s="5" t="str">
-        <f>CHAR(F244)</f>
+        <f t="shared" si="12"/>
         <v>Â</v>
       </c>
     </row>
@@ -6405,14 +6417,14 @@
         <v>697</v>
       </c>
       <c r="E245" s="4" t="str">
-        <f>DEC2HEX(F245)</f>
+        <f t="shared" si="10"/>
         <v>C3</v>
       </c>
       <c r="F245" s="5">
         <v>195</v>
       </c>
       <c r="G245" s="5" t="str">
-        <f>CHAR(F245)</f>
+        <f t="shared" si="12"/>
         <v>Ã</v>
       </c>
     </row>
@@ -6430,14 +6442,14 @@
         <v>577</v>
       </c>
       <c r="E246" s="4" t="str">
-        <f>DEC2HEX(F246)</f>
+        <f t="shared" si="10"/>
         <v>C4</v>
       </c>
       <c r="F246" s="5">
         <v>196</v>
       </c>
       <c r="G246" s="5" t="str">
-        <f>CHAR(F246)</f>
+        <f t="shared" si="12"/>
         <v>Ä</v>
       </c>
     </row>
@@ -6455,14 +6467,14 @@
         <v>595</v>
       </c>
       <c r="E247" s="4" t="str">
-        <f>DEC2HEX(F247)</f>
+        <f t="shared" si="10"/>
         <v>C4</v>
       </c>
       <c r="F247" s="5">
         <v>196</v>
       </c>
       <c r="G247" s="5" t="str">
-        <f>CHAR(F247)</f>
+        <f t="shared" si="12"/>
         <v>Ä</v>
       </c>
       <c r="I247" s="4"/>
@@ -6482,14 +6494,14 @@
         <v>711</v>
       </c>
       <c r="E248" s="4" t="str">
-        <f>DEC2HEX(F248)</f>
+        <f t="shared" si="10"/>
         <v>C4</v>
       </c>
       <c r="F248" s="5">
         <v>196</v>
       </c>
       <c r="G248" s="5" t="str">
-        <f>CHAR(F248)</f>
+        <f t="shared" si="12"/>
         <v>Ä</v>
       </c>
     </row>
@@ -6507,14 +6519,14 @@
         <v>573</v>
       </c>
       <c r="E249" s="4" t="str">
-        <f>DEC2HEX(F249)</f>
+        <f t="shared" si="10"/>
         <v>C5</v>
       </c>
       <c r="F249" s="5">
         <v>197</v>
       </c>
       <c r="G249" s="5" t="str">
-        <f>CHAR(F249)</f>
+        <f t="shared" si="12"/>
         <v>Å</v>
       </c>
     </row>
@@ -6526,14 +6538,14 @@
         <v>226</v>
       </c>
       <c r="E250" s="4" t="str">
-        <f>DEC2HEX(F250)</f>
+        <f t="shared" si="10"/>
         <v>C6</v>
       </c>
       <c r="F250" s="5">
         <v>198</v>
       </c>
       <c r="G250" s="5" t="str">
-        <f>CHAR(F250)</f>
+        <f t="shared" si="12"/>
         <v>Æ</v>
       </c>
     </row>
@@ -6551,14 +6563,14 @@
         <v>294</v>
       </c>
       <c r="E251" s="4" t="str">
-        <f>DEC2HEX(F251)</f>
+        <f t="shared" si="10"/>
         <v>C7</v>
       </c>
       <c r="F251" s="5">
         <v>199</v>
       </c>
       <c r="G251" s="5" t="str">
-        <f>CHAR(F251)</f>
+        <f t="shared" si="12"/>
         <v>Ç</v>
       </c>
       <c r="I251" s="5">
@@ -6579,14 +6591,14 @@
         <v>407</v>
       </c>
       <c r="E252" s="4" t="str">
-        <f>DEC2HEX(F252)</f>
+        <f t="shared" si="10"/>
         <v>C8</v>
       </c>
       <c r="F252" s="5">
         <v>200</v>
       </c>
       <c r="G252" s="5" t="str">
-        <f>CHAR(F252)</f>
+        <f t="shared" si="12"/>
         <v>È</v>
       </c>
     </row>
@@ -6604,14 +6616,14 @@
         <v>537</v>
       </c>
       <c r="E253" s="4" t="str">
-        <f>DEC2HEX(F253)</f>
+        <f t="shared" si="10"/>
         <v>C8</v>
       </c>
       <c r="F253" s="5">
         <v>200</v>
       </c>
       <c r="G253" s="5" t="str">
-        <f>CHAR(F253)</f>
+        <f t="shared" si="12"/>
         <v>È</v>
       </c>
       <c r="I253" s="5">
@@ -6629,14 +6641,14 @@
         <v>188</v>
       </c>
       <c r="E254" s="4" t="str">
-        <f>DEC2HEX(F254)</f>
+        <f t="shared" si="10"/>
         <v>C9</v>
       </c>
       <c r="F254" s="5">
         <v>201</v>
       </c>
       <c r="G254" s="5" t="str">
-        <f>CHAR(F254)</f>
+        <f t="shared" si="12"/>
         <v>É</v>
       </c>
     </row>
@@ -6654,20 +6666,20 @@
         <v>751</v>
       </c>
       <c r="E255" s="4" t="str">
-        <f>DEC2HEX(F255)</f>
+        <f t="shared" si="10"/>
         <v>CA</v>
       </c>
       <c r="F255" s="5">
         <v>202</v>
       </c>
       <c r="G255" s="5" t="str">
-        <f>CHAR(F255)</f>
+        <f t="shared" si="12"/>
         <v>Ê</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>107</v>
@@ -6679,14 +6691,14 @@
         <v>955</v>
       </c>
       <c r="E256" s="4" t="str">
-        <f>DEC2HEX(F256)</f>
+        <f t="shared" si="10"/>
         <v>CA</v>
       </c>
       <c r="F256" s="5">
         <v>202</v>
       </c>
       <c r="G256" s="5" t="str">
-        <f>CHAR(F256)</f>
+        <f t="shared" si="12"/>
         <v>Ê</v>
       </c>
     </row>
@@ -6704,14 +6716,14 @@
         <v>959</v>
       </c>
       <c r="E257" s="4" t="str">
-        <f>DEC2HEX(F257)</f>
+        <f t="shared" si="10"/>
         <v>CA</v>
       </c>
       <c r="F257" s="5">
         <v>202</v>
       </c>
       <c r="G257" s="5" t="str">
-        <f>CHAR(F257)</f>
+        <f t="shared" si="12"/>
         <v>Ê</v>
       </c>
     </row>
@@ -6729,14 +6741,14 @@
         <v>963</v>
       </c>
       <c r="E258" s="5" t="str">
-        <f>DEC2HEX(F258)</f>
+        <f t="shared" ref="E258:E318" si="13">DEC2HEX(F258)</f>
         <v>CA</v>
       </c>
       <c r="F258" s="5">
         <v>202</v>
       </c>
       <c r="G258" s="5" t="str">
-        <f>CHAR(F258)</f>
+        <f t="shared" si="12"/>
         <v>Ê</v>
       </c>
     </row>
@@ -6754,14 +6766,14 @@
         <v>967</v>
       </c>
       <c r="E259" s="5" t="str">
-        <f>DEC2HEX(F259)</f>
+        <f t="shared" si="13"/>
         <v>CA</v>
       </c>
       <c r="F259" s="5">
         <v>202</v>
       </c>
       <c r="G259" s="5" t="str">
-        <f>CHAR(F259)</f>
+        <f t="shared" si="12"/>
         <v>Ê</v>
       </c>
     </row>
@@ -6779,14 +6791,14 @@
         <v>971</v>
       </c>
       <c r="E260" s="4" t="str">
-        <f>DEC2HEX(F260)</f>
+        <f t="shared" si="13"/>
         <v>CA</v>
       </c>
       <c r="F260" s="5">
         <v>202</v>
       </c>
       <c r="G260" s="5" t="str">
-        <f>CHAR(F260)</f>
+        <f t="shared" si="12"/>
         <v>Ê</v>
       </c>
     </row>
@@ -6804,14 +6816,14 @@
         <v>755</v>
       </c>
       <c r="E261" s="6" t="str">
-        <f>DEC2HEX(F261)</f>
+        <f t="shared" si="13"/>
         <v>CB</v>
       </c>
       <c r="F261" s="5">
         <v>203</v>
       </c>
       <c r="G261" s="5" t="str">
-        <f>CHAR(F261)</f>
+        <f t="shared" si="12"/>
         <v>Ë</v>
       </c>
     </row>
@@ -6829,14 +6841,14 @@
         <v>765</v>
       </c>
       <c r="E262" s="6" t="str">
-        <f>DEC2HEX(F262)</f>
+        <f t="shared" si="13"/>
         <v>CC</v>
       </c>
       <c r="F262" s="5">
         <v>204</v>
       </c>
       <c r="G262" s="5" t="str">
-        <f>CHAR(F262)</f>
+        <f t="shared" si="12"/>
         <v>Ì</v>
       </c>
     </row>
@@ -6854,14 +6866,14 @@
         <v>785</v>
       </c>
       <c r="E263" s="6" t="str">
-        <f>DEC2HEX(F263)</f>
+        <f t="shared" si="13"/>
         <v>CD</v>
       </c>
       <c r="F263" s="5">
         <v>205</v>
       </c>
       <c r="G263" s="5" t="str">
-        <f>CHAR(F263)</f>
+        <f t="shared" si="12"/>
         <v>Í</v>
       </c>
     </row>
@@ -6873,14 +6885,14 @@
         <v>268</v>
       </c>
       <c r="E264" s="4" t="str">
-        <f>DEC2HEX(F264)</f>
+        <f t="shared" si="13"/>
         <v>CE</v>
       </c>
       <c r="F264" s="5">
         <v>206</v>
       </c>
       <c r="G264" s="5" t="str">
-        <f>CHAR(F264)</f>
+        <f t="shared" si="12"/>
         <v>Î</v>
       </c>
     </row>
@@ -6892,14 +6904,14 @@
         <v>227</v>
       </c>
       <c r="E265" s="4" t="str">
-        <f>DEC2HEX(F265)</f>
+        <f t="shared" si="13"/>
         <v>CF</v>
       </c>
       <c r="F265" s="5">
         <v>207</v>
       </c>
       <c r="G265" s="5" t="str">
-        <f>CHAR(F265)</f>
+        <f t="shared" si="12"/>
         <v>Ï</v>
       </c>
     </row>
@@ -6917,14 +6929,14 @@
         <v>533</v>
       </c>
       <c r="E266" s="4" t="str">
-        <f>DEC2HEX(F266)</f>
+        <f t="shared" si="13"/>
         <v>D0</v>
       </c>
       <c r="F266" s="5">
         <v>208</v>
       </c>
       <c r="G266" s="5" t="str">
-        <f>CHAR(F266)</f>
+        <f t="shared" si="12"/>
         <v>Ð</v>
       </c>
     </row>
@@ -6942,14 +6954,14 @@
         <v>803</v>
       </c>
       <c r="E267" s="5" t="str">
-        <f>DEC2HEX(F267)</f>
+        <f t="shared" si="13"/>
         <v>D1</v>
       </c>
       <c r="F267" s="5">
         <v>209</v>
       </c>
       <c r="G267" s="5" t="str">
-        <f>CHAR(F267)</f>
+        <f t="shared" si="12"/>
         <v>Ñ</v>
       </c>
     </row>
@@ -6967,14 +6979,14 @@
         <v>799</v>
       </c>
       <c r="E268" s="5" t="str">
-        <f>DEC2HEX(F268)</f>
+        <f t="shared" si="13"/>
         <v>D2</v>
       </c>
       <c r="F268" s="5">
         <v>210</v>
       </c>
       <c r="G268" s="5" t="str">
-        <f>CHAR(F268)</f>
+        <f t="shared" si="12"/>
         <v>Ò</v>
       </c>
     </row>
@@ -6992,14 +7004,14 @@
         <v>807</v>
       </c>
       <c r="E269" s="5" t="str">
-        <f>DEC2HEX(F269)</f>
+        <f t="shared" si="13"/>
         <v>D2</v>
       </c>
       <c r="F269" s="5">
         <v>210</v>
       </c>
       <c r="G269" s="5" t="str">
-        <f>CHAR(F269)</f>
+        <f t="shared" si="12"/>
         <v>Ò</v>
       </c>
     </row>
@@ -7017,14 +7029,14 @@
         <v>811</v>
       </c>
       <c r="E270" s="5" t="str">
-        <f>DEC2HEX(F270)</f>
+        <f t="shared" si="13"/>
         <v>D3</v>
       </c>
       <c r="F270" s="5">
         <v>211</v>
       </c>
       <c r="G270" s="5" t="str">
-        <f>CHAR(F270)</f>
+        <f t="shared" si="12"/>
         <v>Ó</v>
       </c>
     </row>
@@ -7042,14 +7054,14 @@
         <v>815</v>
       </c>
       <c r="E271" s="5" t="str">
-        <f>DEC2HEX(F271)</f>
+        <f t="shared" si="13"/>
         <v>D4</v>
       </c>
       <c r="F271" s="5">
         <v>212</v>
       </c>
       <c r="G271" s="5" t="str">
-        <f>CHAR(F271)</f>
+        <f t="shared" si="12"/>
         <v>Ô</v>
       </c>
     </row>
@@ -7067,14 +7079,14 @@
         <v>825</v>
       </c>
       <c r="E272" s="5" t="str">
-        <f>DEC2HEX(F272)</f>
+        <f t="shared" si="13"/>
         <v>D5</v>
       </c>
       <c r="F272" s="5">
         <v>213</v>
       </c>
       <c r="G272" s="5" t="str">
-        <f>CHAR(F272)</f>
+        <f t="shared" si="12"/>
         <v>Õ</v>
       </c>
     </row>
@@ -7092,14 +7104,14 @@
         <v>845</v>
       </c>
       <c r="E273" s="5" t="str">
-        <f>DEC2HEX(F273)</f>
+        <f t="shared" si="13"/>
         <v>D6</v>
       </c>
       <c r="F273" s="5">
         <v>214</v>
       </c>
       <c r="G273" s="5" t="str">
-        <f>CHAR(F273)</f>
+        <f t="shared" si="12"/>
         <v>Ö</v>
       </c>
       <c r="I273" s="5">
@@ -7117,14 +7129,14 @@
         <v>267</v>
       </c>
       <c r="E274" s="4" t="str">
-        <f>DEC2HEX(F274)</f>
+        <f t="shared" si="13"/>
         <v>D7</v>
       </c>
       <c r="F274" s="5">
         <v>215</v>
       </c>
       <c r="G274" s="5" t="str">
-        <f>CHAR(F274)</f>
+        <f t="shared" ref="G274:G305" si="14">CHAR(F274)</f>
         <v>×</v>
       </c>
     </row>
@@ -7142,14 +7154,14 @@
         <v>251</v>
       </c>
       <c r="E275" s="4" t="str">
-        <f>DEC2HEX(F275)</f>
+        <f t="shared" si="13"/>
         <v>D8</v>
       </c>
       <c r="F275" s="5">
         <v>216</v>
       </c>
       <c r="G275" s="5" t="str">
-        <f>CHAR(F275)</f>
+        <f t="shared" si="14"/>
         <v>Ø</v>
       </c>
     </row>
@@ -7167,14 +7179,14 @@
         <v>255</v>
       </c>
       <c r="E276" s="4" t="str">
-        <f>DEC2HEX(F276)</f>
+        <f t="shared" si="13"/>
         <v>D9</v>
       </c>
       <c r="F276" s="5">
         <v>217</v>
       </c>
       <c r="G276" s="5" t="str">
-        <f>CHAR(F276)</f>
+        <f t="shared" si="14"/>
         <v>Ù</v>
       </c>
     </row>
@@ -7192,14 +7204,14 @@
         <v>259</v>
       </c>
       <c r="E277" s="4" t="str">
-        <f>DEC2HEX(F277)</f>
+        <f t="shared" si="13"/>
         <v>DA</v>
       </c>
       <c r="F277" s="5">
         <v>218</v>
       </c>
       <c r="G277" s="5" t="str">
-        <f>CHAR(F277)</f>
+        <f t="shared" si="14"/>
         <v>Ú</v>
       </c>
     </row>
@@ -7217,14 +7229,14 @@
         <v>263</v>
       </c>
       <c r="E278" s="4" t="str">
-        <f>DEC2HEX(F278)</f>
+        <f t="shared" si="13"/>
         <v>DB</v>
       </c>
       <c r="F278" s="5">
         <v>219</v>
       </c>
       <c r="G278" s="5" t="str">
-        <f>CHAR(F278)</f>
+        <f t="shared" si="14"/>
         <v>Û</v>
       </c>
     </row>
@@ -7242,14 +7254,14 @@
         <v>859</v>
       </c>
       <c r="E279" s="4" t="str">
-        <f>DEC2HEX(F279)</f>
+        <f t="shared" si="13"/>
         <v>DC</v>
       </c>
       <c r="F279" s="5">
         <v>220</v>
       </c>
       <c r="G279" s="5" t="str">
-        <f>CHAR(F279)</f>
+        <f t="shared" si="14"/>
         <v>Ü</v>
       </c>
     </row>
@@ -7267,14 +7279,14 @@
         <v>863</v>
       </c>
       <c r="E280" s="4" t="str">
-        <f>DEC2HEX(F280)</f>
+        <f t="shared" si="13"/>
         <v>DD</v>
       </c>
       <c r="F280" s="5">
         <v>221</v>
       </c>
       <c r="G280" s="5" t="str">
-        <f>CHAR(F280)</f>
+        <f t="shared" si="14"/>
         <v>Ý</v>
       </c>
     </row>
@@ -7292,14 +7304,14 @@
         <v>867</v>
       </c>
       <c r="E281" s="4" t="str">
-        <f>DEC2HEX(F281)</f>
+        <f t="shared" si="13"/>
         <v>DE</v>
       </c>
       <c r="F281" s="5">
         <v>222</v>
       </c>
       <c r="G281" s="5" t="str">
-        <f>CHAR(F281)</f>
+        <f t="shared" si="14"/>
         <v>Þ</v>
       </c>
     </row>
@@ -7317,14 +7329,14 @@
         <v>871</v>
       </c>
       <c r="E282" s="4" t="str">
-        <f>DEC2HEX(F282)</f>
+        <f t="shared" si="13"/>
         <v>DF</v>
       </c>
       <c r="F282" s="5">
         <v>223</v>
       </c>
       <c r="G282" s="5" t="str">
-        <f>CHAR(F282)</f>
+        <f t="shared" si="14"/>
         <v>ß</v>
       </c>
     </row>
@@ -7342,14 +7354,14 @@
         <v>851</v>
       </c>
       <c r="E283" s="4" t="str">
-        <f>DEC2HEX(F283)</f>
+        <f t="shared" si="13"/>
         <v>E0</v>
       </c>
       <c r="F283" s="5">
         <v>224</v>
       </c>
       <c r="G283" s="5" t="str">
-        <f>CHAR(F283)</f>
+        <f t="shared" si="14"/>
         <v>à</v>
       </c>
     </row>
@@ -7367,14 +7379,14 @@
         <v>855</v>
       </c>
       <c r="E284" s="4" t="str">
-        <f>DEC2HEX(F284)</f>
+        <f t="shared" si="13"/>
         <v>E1</v>
       </c>
       <c r="F284" s="5">
         <v>225</v>
       </c>
       <c r="G284" s="5" t="str">
-        <f>CHAR(F284)</f>
+        <f t="shared" si="14"/>
         <v>á</v>
       </c>
     </row>
@@ -7392,14 +7404,14 @@
         <v>151</v>
       </c>
       <c r="E285" s="4" t="str">
-        <f>DEC2HEX(F285)</f>
+        <f t="shared" si="13"/>
         <v>E2</v>
       </c>
       <c r="F285" s="5">
         <v>226</v>
       </c>
       <c r="G285" s="5" t="str">
-        <f>CHAR(F285)</f>
+        <f t="shared" si="14"/>
         <v>â</v>
       </c>
     </row>
@@ -7417,14 +7429,14 @@
         <v>211</v>
       </c>
       <c r="E286" s="4" t="str">
-        <f>DEC2HEX(F286)</f>
+        <f t="shared" si="13"/>
         <v>E3</v>
       </c>
       <c r="F286" s="5">
         <v>227</v>
       </c>
       <c r="G286" s="5" t="str">
-        <f>CHAR(F286)</f>
+        <f t="shared" si="14"/>
         <v>ã</v>
       </c>
     </row>
@@ -7442,14 +7454,14 @@
         <v>309</v>
       </c>
       <c r="E287" s="4" t="str">
-        <f>DEC2HEX(F287)</f>
+        <f t="shared" si="13"/>
         <v>E4</v>
       </c>
       <c r="F287" s="5">
         <v>228</v>
       </c>
       <c r="G287" s="5" t="str">
-        <f>CHAR(F287)</f>
+        <f t="shared" si="14"/>
         <v>ä</v>
       </c>
     </row>
@@ -7467,14 +7479,14 @@
         <v>324</v>
       </c>
       <c r="E288" s="4" t="str">
-        <f>DEC2HEX(F288)</f>
+        <f t="shared" si="13"/>
         <v>E5</v>
       </c>
       <c r="F288" s="5">
         <v>229</v>
       </c>
       <c r="G288" s="5" t="str">
-        <f>CHAR(F288)</f>
+        <f t="shared" si="14"/>
         <v>å</v>
       </c>
     </row>
@@ -7492,14 +7504,14 @@
         <v>667</v>
       </c>
       <c r="E289" s="4" t="str">
-        <f>DEC2HEX(F289)</f>
+        <f t="shared" si="13"/>
         <v>E6</v>
       </c>
       <c r="F289" s="5">
         <v>230</v>
       </c>
       <c r="G289" s="5" t="str">
-        <f>CHAR(F289)</f>
+        <f t="shared" si="14"/>
         <v>æ</v>
       </c>
     </row>
@@ -7511,14 +7523,14 @@
         <v>132</v>
       </c>
       <c r="E290" s="4" t="str">
-        <f>DEC2HEX(F290)</f>
+        <f t="shared" si="13"/>
         <v>E7</v>
       </c>
       <c r="F290" s="5">
         <v>231</v>
       </c>
       <c r="G290" s="5" t="str">
-        <f>CHAR(F290)</f>
+        <f t="shared" si="14"/>
         <v>ç</v>
       </c>
     </row>
@@ -7536,14 +7548,14 @@
         <v>83</v>
       </c>
       <c r="E291" s="4" t="str">
-        <f>DEC2HEX(F291)</f>
+        <f t="shared" si="13"/>
         <v>E8</v>
       </c>
       <c r="F291" s="5">
         <v>232</v>
       </c>
       <c r="G291" s="5" t="str">
-        <f>CHAR(F291)</f>
+        <f t="shared" si="14"/>
         <v>è</v>
       </c>
     </row>
@@ -7561,14 +7573,14 @@
         <v>87</v>
       </c>
       <c r="E292" s="4" t="str">
-        <f>DEC2HEX(F292)</f>
+        <f t="shared" si="13"/>
         <v>E9</v>
       </c>
       <c r="F292" s="5">
         <v>233</v>
       </c>
       <c r="G292" s="5" t="str">
-        <f>CHAR(F292)</f>
+        <f t="shared" si="14"/>
         <v>é</v>
       </c>
     </row>
@@ -7586,14 +7598,14 @@
         <v>91</v>
       </c>
       <c r="E293" s="4" t="str">
-        <f>DEC2HEX(F293)</f>
+        <f t="shared" si="13"/>
         <v>EA</v>
       </c>
       <c r="F293" s="5">
         <v>234</v>
       </c>
       <c r="G293" s="5" t="str">
-        <f>CHAR(F293)</f>
+        <f t="shared" si="14"/>
         <v>ê</v>
       </c>
     </row>
@@ -7611,14 +7623,14 @@
         <v>95</v>
       </c>
       <c r="E294" s="4" t="str">
-        <f>DEC2HEX(F294)</f>
+        <f t="shared" si="13"/>
         <v>EB</v>
       </c>
       <c r="F294" s="5">
         <v>235</v>
       </c>
       <c r="G294" s="5" t="str">
-        <f>CHAR(F294)</f>
+        <f t="shared" si="14"/>
         <v>ë</v>
       </c>
     </row>
@@ -7630,14 +7642,14 @@
         <v>137</v>
       </c>
       <c r="E295" s="4" t="str">
-        <f>DEC2HEX(F295)</f>
+        <f t="shared" si="13"/>
         <v>EC</v>
       </c>
       <c r="F295" s="5">
         <v>236</v>
       </c>
       <c r="G295" s="5" t="str">
-        <f>CHAR(F295)</f>
+        <f t="shared" si="14"/>
         <v>ì</v>
       </c>
     </row>
@@ -7655,14 +7667,14 @@
         <v>143</v>
       </c>
       <c r="E296" s="4" t="str">
-        <f>DEC2HEX(F296)</f>
+        <f t="shared" si="13"/>
         <v>ED</v>
       </c>
       <c r="F296" s="5">
         <v>237</v>
       </c>
       <c r="G296" s="5" t="str">
-        <f>CHAR(F296)</f>
+        <f t="shared" si="14"/>
         <v>í</v>
       </c>
     </row>
@@ -7680,14 +7692,14 @@
         <v>147</v>
       </c>
       <c r="E297" s="4" t="str">
-        <f>DEC2HEX(F297)</f>
+        <f t="shared" si="13"/>
         <v>EE</v>
       </c>
       <c r="F297" s="5">
         <v>238</v>
       </c>
       <c r="G297" s="5" t="str">
-        <f>CHAR(F297)</f>
+        <f t="shared" si="14"/>
         <v>î</v>
       </c>
     </row>
@@ -7705,14 +7717,14 @@
         <v>203</v>
       </c>
       <c r="E298" s="6" t="str">
-        <f>DEC2HEX(F298)</f>
+        <f t="shared" si="13"/>
         <v>EF</v>
       </c>
       <c r="F298" s="5">
         <v>239</v>
       </c>
       <c r="G298" s="5" t="str">
-        <f>CHAR(F298)</f>
+        <f t="shared" si="14"/>
         <v>ï</v>
       </c>
     </row>
@@ -7730,14 +7742,14 @@
         <v>225</v>
       </c>
       <c r="E299" s="4" t="str">
-        <f>DEC2HEX(F299)</f>
+        <f t="shared" si="13"/>
         <v>F0</v>
       </c>
       <c r="F299" s="5">
         <v>240</v>
       </c>
       <c r="G299" s="5" t="str">
-        <f>CHAR(F299)</f>
+        <f t="shared" si="14"/>
         <v>ð</v>
       </c>
     </row>
@@ -7755,14 +7767,14 @@
         <v>795</v>
       </c>
       <c r="E300" s="4" t="str">
-        <f>DEC2HEX(F300)</f>
+        <f t="shared" si="13"/>
         <v>F1</v>
       </c>
       <c r="F300" s="5">
         <v>241</v>
       </c>
       <c r="G300" s="5" t="str">
-        <f>CHAR(F300)</f>
+        <f t="shared" si="14"/>
         <v>ñ</v>
       </c>
     </row>
@@ -7780,14 +7792,14 @@
         <v>207</v>
       </c>
       <c r="E301" s="4" t="str">
-        <f>DEC2HEX(F301)</f>
+        <f t="shared" si="13"/>
         <v>F2</v>
       </c>
       <c r="F301" s="5">
         <v>242</v>
       </c>
       <c r="G301" s="5" t="str">
-        <f>CHAR(F301)</f>
+        <f t="shared" si="14"/>
         <v>ò</v>
       </c>
     </row>
@@ -7805,14 +7817,14 @@
         <v>835</v>
       </c>
       <c r="E302" s="4" t="str">
-        <f>DEC2HEX(F302)</f>
+        <f t="shared" si="13"/>
         <v>F3</v>
       </c>
       <c r="F302" s="5">
         <v>243</v>
       </c>
       <c r="G302" s="5" t="str">
-        <f>CHAR(F302)</f>
+        <f t="shared" si="14"/>
         <v>ó</v>
       </c>
     </row>
@@ -7830,14 +7842,14 @@
         <v>193</v>
       </c>
       <c r="E303" s="4" t="str">
-        <f>DEC2HEX(F303)</f>
+        <f t="shared" si="13"/>
         <v>F4</v>
       </c>
       <c r="F303" s="5">
         <v>244</v>
       </c>
       <c r="G303" s="5" t="str">
-        <f>CHAR(F303)</f>
+        <f t="shared" si="14"/>
         <v>ô</v>
       </c>
       <c r="I303" s="5">
@@ -7861,14 +7873,14 @@
         <v>235</v>
       </c>
       <c r="E304" s="4" t="str">
-        <f>DEC2HEX(F304)</f>
+        <f t="shared" si="13"/>
         <v>F5</v>
       </c>
       <c r="F304" s="5">
         <v>245</v>
       </c>
       <c r="G304" s="5" t="str">
-        <f>CHAR(F304)</f>
+        <f t="shared" si="14"/>
         <v>õ</v>
       </c>
     </row>
@@ -7886,14 +7898,14 @@
         <v>373</v>
       </c>
       <c r="E305" s="4" t="str">
-        <f>DEC2HEX(F305)</f>
+        <f t="shared" si="13"/>
         <v>F6</v>
       </c>
       <c r="F305" s="5">
         <v>246</v>
       </c>
       <c r="G305" s="5" t="str">
-        <f>CHAR(F305)</f>
+        <f t="shared" si="14"/>
         <v>ö</v>
       </c>
     </row>
@@ -7905,14 +7917,14 @@
         <v>216</v>
       </c>
       <c r="E306" s="4" t="str">
-        <f>DEC2HEX(F306)</f>
+        <f t="shared" si="13"/>
         <v>F7</v>
       </c>
       <c r="F306" s="5">
         <v>247</v>
       </c>
       <c r="G306" s="5" t="str">
-        <f>CHAR(F306)</f>
+        <f t="shared" ref="G306:G318" si="15">CHAR(F306)</f>
         <v>÷</v>
       </c>
     </row>
@@ -7930,14 +7942,14 @@
         <v>267</v>
       </c>
       <c r="E307" s="4" t="str">
-        <f>DEC2HEX(F307)</f>
+        <f t="shared" si="13"/>
         <v>F8</v>
       </c>
       <c r="F307" s="5">
         <v>248</v>
       </c>
       <c r="G307" s="5" t="str">
-        <f>CHAR(F307)</f>
+        <f t="shared" si="15"/>
         <v>ø</v>
       </c>
       <c r="I307" s="4">
@@ -7961,14 +7973,14 @@
         <v>299</v>
       </c>
       <c r="E308" s="4" t="str">
-        <f>DEC2HEX(F308)</f>
+        <f t="shared" si="13"/>
         <v>F8</v>
       </c>
       <c r="F308" s="5">
         <v>248</v>
       </c>
       <c r="G308" s="5" t="str">
-        <f>CHAR(F308)</f>
+        <f t="shared" si="15"/>
         <v>ø</v>
       </c>
       <c r="J308" s="4"/>
@@ -7987,14 +7999,14 @@
         <v>377</v>
       </c>
       <c r="E309" s="4" t="str">
-        <f>DEC2HEX(F309)</f>
+        <f t="shared" si="13"/>
         <v>F9</v>
       </c>
       <c r="F309" s="5">
         <v>249</v>
       </c>
       <c r="G309" s="5" t="str">
-        <f>CHAR(F309)</f>
+        <f t="shared" si="15"/>
         <v>ù</v>
       </c>
       <c r="I309" s="5">
@@ -8018,14 +8030,14 @@
         <v>399</v>
       </c>
       <c r="E310" s="4" t="str">
-        <f>DEC2HEX(F310)</f>
+        <f t="shared" si="13"/>
         <v>F9</v>
       </c>
       <c r="F310" s="5">
         <v>249</v>
       </c>
       <c r="G310" s="5" t="str">
-        <f>CHAR(F310)</f>
+        <f t="shared" si="15"/>
         <v>ù</v>
       </c>
     </row>
@@ -8043,14 +8055,14 @@
         <v>467</v>
       </c>
       <c r="E311" s="4" t="str">
-        <f>DEC2HEX(F311)</f>
+        <f t="shared" si="13"/>
         <v>FA</v>
       </c>
       <c r="F311" s="5">
         <v>250</v>
       </c>
       <c r="G311" s="5" t="str">
-        <f>CHAR(F311)</f>
+        <f t="shared" si="15"/>
         <v>ú</v>
       </c>
     </row>
@@ -8068,14 +8080,14 @@
         <v>561</v>
       </c>
       <c r="E312" s="4" t="str">
-        <f>DEC2HEX(F312)</f>
+        <f t="shared" si="13"/>
         <v>FA</v>
       </c>
       <c r="F312" s="5">
         <v>250</v>
       </c>
       <c r="G312" s="5" t="str">
-        <f>CHAR(F312)</f>
+        <f t="shared" si="15"/>
         <v>ú</v>
       </c>
     </row>
@@ -8093,14 +8105,14 @@
         <v>647</v>
       </c>
       <c r="E313" s="4" t="str">
-        <f>DEC2HEX(F313)</f>
+        <f t="shared" si="13"/>
         <v>FB</v>
       </c>
       <c r="F313" s="5">
         <v>251</v>
       </c>
       <c r="G313" s="5" t="str">
-        <f>CHAR(F313)</f>
+        <f t="shared" si="15"/>
         <v>û</v>
       </c>
     </row>
@@ -8118,14 +8130,14 @@
         <v>687</v>
       </c>
       <c r="E314" s="4" t="str">
-        <f>DEC2HEX(F314)</f>
+        <f t="shared" si="13"/>
         <v>FC</v>
       </c>
       <c r="F314" s="5">
         <v>252</v>
       </c>
       <c r="G314" s="5" t="str">
-        <f>CHAR(F314)</f>
+        <f t="shared" si="15"/>
         <v>ü</v>
       </c>
     </row>
@@ -8143,14 +8155,14 @@
         <v>769</v>
       </c>
       <c r="E315" s="4" t="str">
-        <f>DEC2HEX(F315)</f>
+        <f t="shared" si="13"/>
         <v>FD</v>
       </c>
       <c r="F315" s="5">
         <v>253</v>
       </c>
       <c r="G315" s="5" t="str">
-        <f>CHAR(F315)</f>
+        <f t="shared" si="15"/>
         <v>ý</v>
       </c>
     </row>
@@ -8168,14 +8180,14 @@
         <v>359</v>
       </c>
       <c r="E316" s="4" t="str">
-        <f>DEC2HEX(F316)</f>
+        <f t="shared" si="13"/>
         <v>FE</v>
       </c>
       <c r="F316" s="5">
         <v>254</v>
       </c>
       <c r="G316" s="5" t="str">
-        <f>CHAR(F316)</f>
+        <f t="shared" si="15"/>
         <v>þ</v>
       </c>
       <c r="I316" s="5">
@@ -8196,27 +8208,27 @@
         <v>395</v>
       </c>
       <c r="E317" s="4" t="str">
-        <f>DEC2HEX(F317)</f>
+        <f t="shared" si="13"/>
         <v>FE</v>
       </c>
       <c r="F317" s="5">
         <v>254</v>
       </c>
       <c r="G317" s="5" t="str">
-        <f>CHAR(F317)</f>
+        <f t="shared" si="15"/>
         <v>þ</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E318" s="1" t="str">
-        <f>DEC2HEX(F318)</f>
+        <f t="shared" si="13"/>
         <v>FF</v>
       </c>
       <c r="F318" s="2">
         <v>255</v>
       </c>
       <c r="G318" s="2" t="str">
-        <f>CHAR(F318)</f>
+        <f t="shared" si="15"/>
         <v>ÿ</v>
       </c>
       <c r="H318" s="1" t="s">
